--- a/Documentation/Questions.xlsx
+++ b/Documentation/Questions.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\william.hausmann\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projet\LesDouzeCoupsMidi\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="275">
   <si>
     <t xml:space="preserve">De quel pays Tirana est-elle la capitale ? </t>
   </si>
@@ -600,6 +600,255 @@
   </si>
   <si>
     <t>Hongrie</t>
+  </si>
+  <si>
+    <t>Combien d'albums un chanteur doit-il vendre pour recevoir un disque d'or ?</t>
+  </si>
+  <si>
+    <t>100'000</t>
+  </si>
+  <si>
+    <t>70'000</t>
+  </si>
+  <si>
+    <t>80'000</t>
+  </si>
+  <si>
+    <t>75'000</t>
+  </si>
+  <si>
+    <t>De quel moyen de locomotion le grand bi est-il l'ancêtre ?</t>
+  </si>
+  <si>
+    <t>Le dirigeable</t>
+  </si>
+  <si>
+    <t>Le monocycle</t>
+  </si>
+  <si>
+    <t>Le trycycle</t>
+  </si>
+  <si>
+    <t>La bicyclette</t>
+  </si>
+  <si>
+    <t>Quel film d'animation a pour héros Woody le cow-boy et Buzz l'éclair ?</t>
+  </si>
+  <si>
+    <t>Cars</t>
+  </si>
+  <si>
+    <t>Robots</t>
+  </si>
+  <si>
+    <t>Small Soldiers</t>
+  </si>
+  <si>
+    <t>Toy Story</t>
+  </si>
+  <si>
+    <t>Quelle est la particularité du tonneau des Danaïdes ?</t>
+  </si>
+  <si>
+    <t>Il ne se dilate jamais</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Il est sans fond </t>
+  </si>
+  <si>
+    <t>Il est tout le temps ouvert</t>
+  </si>
+  <si>
+    <t>Il est en cristal</t>
+  </si>
+  <si>
+    <t>Il est sans fond</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quel cavalier est le maître de Rossinante ? </t>
+  </si>
+  <si>
+    <t>Don Quichotte</t>
+  </si>
+  <si>
+    <t>Jorge Luis Borges</t>
+  </si>
+  <si>
+    <t>Günter Grass</t>
+  </si>
+  <si>
+    <t>Sirano de Bergerac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quelle est la capitale du Cameroun ? </t>
+  </si>
+  <si>
+    <t>Douala</t>
+  </si>
+  <si>
+    <t>Bertoua</t>
+  </si>
+  <si>
+    <t>Yaoundé</t>
+  </si>
+  <si>
+    <t>Luanda</t>
+  </si>
+  <si>
+    <t>Qui est la muse de l'Histoire dans la mythologie grecque ?</t>
+  </si>
+  <si>
+    <t>Clio</t>
+  </si>
+  <si>
+    <t>Calliope</t>
+  </si>
+  <si>
+    <t>Uranie</t>
+  </si>
+  <si>
+    <t>Euterpe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dans la mythologie grecque, qui est le dieu des voleurs ? </t>
+  </si>
+  <si>
+    <t>Horus</t>
+  </si>
+  <si>
+    <t>Hermès</t>
+  </si>
+  <si>
+    <t>Helheim</t>
+  </si>
+  <si>
+    <t>Hélios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quel est le véritable prénom de M. Pokora ? </t>
+  </si>
+  <si>
+    <t>Matt</t>
+  </si>
+  <si>
+    <t>Mathéo</t>
+  </si>
+  <si>
+    <t>Mathias</t>
+  </si>
+  <si>
+    <t>Matthieu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quel couple de petits personnages rouge et bleu s'anime en 1974 ? </t>
+  </si>
+  <si>
+    <t>Boule &amp; Bill</t>
+  </si>
+  <si>
+    <t>Titi &amp; Grosminet</t>
+  </si>
+  <si>
+    <t>Coyotte &amp; Bip bip</t>
+  </si>
+  <si>
+    <t>Chapi &amp; Chapo</t>
+  </si>
+  <si>
+    <t>Quel sirop consommez-vous si vous buvez un Monaco ?</t>
+  </si>
+  <si>
+    <t>Cerise</t>
+  </si>
+  <si>
+    <t>Framboise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menthe </t>
+  </si>
+  <si>
+    <t>Grenadine</t>
+  </si>
+  <si>
+    <t>Comment s'appelle le chevalier dans Zelda</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>Zelda</t>
+  </si>
+  <si>
+    <t>Gooruk</t>
+  </si>
+  <si>
+    <t>Revali</t>
+  </si>
+  <si>
+    <t>Comment s'appelle la princesse dans Mario Galaxy</t>
+  </si>
+  <si>
+    <t>Daisy</t>
+  </si>
+  <si>
+    <t>Peach</t>
+  </si>
+  <si>
+    <t>Harmonie</t>
+  </si>
+  <si>
+    <t>Queen</t>
+  </si>
+  <si>
+    <t>Dans quoi se cache le célèbre personnage dans Metal gear solid</t>
+  </si>
+  <si>
+    <t>Un carton</t>
+  </si>
+  <si>
+    <t>Un buisson</t>
+  </si>
+  <si>
+    <t>Une cabine télephonique</t>
+  </si>
+  <si>
+    <t>Un sac de couchage</t>
+  </si>
+  <si>
+    <t>Combien y'a-t-il de pokémons dans la 1er géneration</t>
+  </si>
+  <si>
+    <t>Quel est la mascotte dans pokémon</t>
+  </si>
+  <si>
+    <t>Pikachu</t>
+  </si>
+  <si>
+    <t>Evoli</t>
+  </si>
+  <si>
+    <t>Rondoudou</t>
+  </si>
+  <si>
+    <t>Insolourdo</t>
+  </si>
+  <si>
+    <t>Un berger a 16 brebis, toutes meurent sauf 10. Combien lui en reste-t-il ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Au Japon, qu'est-ce qu'un yakuza ? </t>
+  </si>
+  <si>
+    <t>Un vendeur de drogue</t>
+  </si>
+  <si>
+    <t>Une vendeur de tapis</t>
+  </si>
+  <si>
+    <t>Un membre de la mafia</t>
+  </si>
+  <si>
+    <t>Un pilier économique</t>
   </si>
 </sst>
 </file>
@@ -917,10 +1166,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1772,6 +2021,366 @@
         <v>191</v>
       </c>
     </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>192</v>
+      </c>
+      <c r="B43" t="s">
+        <v>193</v>
+      </c>
+      <c r="C43" t="s">
+        <v>194</v>
+      </c>
+      <c r="D43" t="s">
+        <v>195</v>
+      </c>
+      <c r="E43" t="s">
+        <v>196</v>
+      </c>
+      <c r="F43" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>197</v>
+      </c>
+      <c r="B44" t="s">
+        <v>198</v>
+      </c>
+      <c r="C44" t="s">
+        <v>199</v>
+      </c>
+      <c r="D44" t="s">
+        <v>200</v>
+      </c>
+      <c r="E44" t="s">
+        <v>201</v>
+      </c>
+      <c r="F44" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>202</v>
+      </c>
+      <c r="B45" t="s">
+        <v>205</v>
+      </c>
+      <c r="C45" t="s">
+        <v>203</v>
+      </c>
+      <c r="D45" t="s">
+        <v>204</v>
+      </c>
+      <c r="E45" t="s">
+        <v>206</v>
+      </c>
+      <c r="F45" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>207</v>
+      </c>
+      <c r="B46" t="s">
+        <v>208</v>
+      </c>
+      <c r="C46" t="s">
+        <v>209</v>
+      </c>
+      <c r="D46" t="s">
+        <v>210</v>
+      </c>
+      <c r="E46" t="s">
+        <v>211</v>
+      </c>
+      <c r="F46" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>213</v>
+      </c>
+      <c r="B47" t="s">
+        <v>214</v>
+      </c>
+      <c r="C47" t="s">
+        <v>215</v>
+      </c>
+      <c r="D47" t="s">
+        <v>216</v>
+      </c>
+      <c r="E47" t="s">
+        <v>217</v>
+      </c>
+      <c r="F47" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>218</v>
+      </c>
+      <c r="B48" t="s">
+        <v>219</v>
+      </c>
+      <c r="C48" t="s">
+        <v>220</v>
+      </c>
+      <c r="D48" t="s">
+        <v>221</v>
+      </c>
+      <c r="E48" t="s">
+        <v>222</v>
+      </c>
+      <c r="F48" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>223</v>
+      </c>
+      <c r="B49" t="s">
+        <v>224</v>
+      </c>
+      <c r="C49" t="s">
+        <v>225</v>
+      </c>
+      <c r="D49" t="s">
+        <v>226</v>
+      </c>
+      <c r="E49" t="s">
+        <v>227</v>
+      </c>
+      <c r="F49" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>228</v>
+      </c>
+      <c r="B50" t="s">
+        <v>229</v>
+      </c>
+      <c r="C50" t="s">
+        <v>230</v>
+      </c>
+      <c r="D50" t="s">
+        <v>231</v>
+      </c>
+      <c r="E50" t="s">
+        <v>232</v>
+      </c>
+      <c r="F50" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>233</v>
+      </c>
+      <c r="B51" t="s">
+        <v>234</v>
+      </c>
+      <c r="C51" t="s">
+        <v>237</v>
+      </c>
+      <c r="D51" t="s">
+        <v>235</v>
+      </c>
+      <c r="E51" t="s">
+        <v>236</v>
+      </c>
+      <c r="F51" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>238</v>
+      </c>
+      <c r="B52" t="s">
+        <v>239</v>
+      </c>
+      <c r="C52" t="s">
+        <v>240</v>
+      </c>
+      <c r="D52" t="s">
+        <v>241</v>
+      </c>
+      <c r="E52" t="s">
+        <v>242</v>
+      </c>
+      <c r="F52" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>243</v>
+      </c>
+      <c r="B53" t="s">
+        <v>244</v>
+      </c>
+      <c r="C53" t="s">
+        <v>245</v>
+      </c>
+      <c r="D53" t="s">
+        <v>246</v>
+      </c>
+      <c r="E53" t="s">
+        <v>247</v>
+      </c>
+      <c r="F53" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>248</v>
+      </c>
+      <c r="B54" t="s">
+        <v>249</v>
+      </c>
+      <c r="C54" t="s">
+        <v>250</v>
+      </c>
+      <c r="D54" t="s">
+        <v>251</v>
+      </c>
+      <c r="E54" t="s">
+        <v>252</v>
+      </c>
+      <c r="F54" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>253</v>
+      </c>
+      <c r="B55" t="s">
+        <v>255</v>
+      </c>
+      <c r="C55" t="s">
+        <v>254</v>
+      </c>
+      <c r="D55" t="s">
+        <v>256</v>
+      </c>
+      <c r="E55" t="s">
+        <v>257</v>
+      </c>
+      <c r="F55" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>258</v>
+      </c>
+      <c r="B56" t="s">
+        <v>259</v>
+      </c>
+      <c r="C56" t="s">
+        <v>260</v>
+      </c>
+      <c r="D56" t="s">
+        <v>261</v>
+      </c>
+      <c r="E56" t="s">
+        <v>262</v>
+      </c>
+      <c r="F56" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>263</v>
+      </c>
+      <c r="B57">
+        <v>160</v>
+      </c>
+      <c r="C57">
+        <v>151</v>
+      </c>
+      <c r="D57">
+        <v>161</v>
+      </c>
+      <c r="E57">
+        <v>150</v>
+      </c>
+      <c r="F57">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>264</v>
+      </c>
+      <c r="B58" t="s">
+        <v>265</v>
+      </c>
+      <c r="C58" t="s">
+        <v>266</v>
+      </c>
+      <c r="D58" t="s">
+        <v>267</v>
+      </c>
+      <c r="E58" t="s">
+        <v>268</v>
+      </c>
+      <c r="F58" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>269</v>
+      </c>
+      <c r="B59">
+        <v>10</v>
+      </c>
+      <c r="C59">
+        <v>6</v>
+      </c>
+      <c r="D59">
+        <v>16</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>270</v>
+      </c>
+      <c r="B60" t="s">
+        <v>271</v>
+      </c>
+      <c r="C60" t="s">
+        <v>272</v>
+      </c>
+      <c r="D60" t="s">
+        <v>273</v>
+      </c>
+      <c r="E60" t="s">
+        <v>274</v>
+      </c>
+      <c r="F60" t="s">
+        <v>273</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Documentation/Questions.xlsx
+++ b/Documentation/Questions.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projet\LesDouzeCoupsMidi\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LesDouzeCoupsMidi\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1630" uniqueCount="1264">
   <si>
     <t xml:space="preserve">De quel pays Tirana est-elle la capitale ? </t>
   </si>
@@ -770,9 +770,6 @@
     <t>Grenadine</t>
   </si>
   <si>
-    <t>Comment s'appelle le chevalier dans Zelda</t>
-  </si>
-  <si>
     <t>Link</t>
   </si>
   <si>
@@ -785,9 +782,6 @@
     <t>Revali</t>
   </si>
   <si>
-    <t>Comment s'appelle la princesse dans Mario Galaxy</t>
-  </si>
-  <si>
     <t>Daisy</t>
   </si>
   <si>
@@ -800,9 +794,6 @@
     <t>Queen</t>
   </si>
   <si>
-    <t>Dans quoi se cache le célèbre personnage dans Metal gear solid</t>
-  </si>
-  <si>
     <t>Un carton</t>
   </si>
   <si>
@@ -815,12 +806,6 @@
     <t>Un sac de couchage</t>
   </si>
   <si>
-    <t>Combien y'a-t-il de pokémons dans la 1er géneration</t>
-  </si>
-  <si>
-    <t>Quel est la mascotte dans pokémon</t>
-  </si>
-  <si>
     <t>Pikachu</t>
   </si>
   <si>
@@ -849,6 +834,2988 @@
   </si>
   <si>
     <t>Un pilier économique</t>
+  </si>
+  <si>
+    <t>Sur une batterie comment appelle t'on le plus gros tambour ?</t>
+  </si>
+  <si>
+    <t>Le charlestone</t>
+  </si>
+  <si>
+    <t>La caisse clair</t>
+  </si>
+  <si>
+    <t>La grosse caisse</t>
+  </si>
+  <si>
+    <t>La symbale</t>
+  </si>
+  <si>
+    <t>Quel est la mascotte dans pokémon ?</t>
+  </si>
+  <si>
+    <t>Combien y'a-t-il de pokémons dans la 1er géneration ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dans quoi se cache le célèbre personnage dans Metal gear solid ? </t>
+  </si>
+  <si>
+    <t>Comment s'appelle la princesse dans Mario Galaxy ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comment s'appelle le chevalier dans Zelda ? </t>
+  </si>
+  <si>
+    <t>blanche, jaune, orange, rouge, noir</t>
+  </si>
+  <si>
+    <t>blanche, jaune, verte, bleu, rouge, noir</t>
+  </si>
+  <si>
+    <t>jaune, verte, bleu, violet, noir</t>
+  </si>
+  <si>
+    <t>jaune, verte, bleu, rose, brun, noir</t>
+  </si>
+  <si>
+    <t>blanche. Jaune, verte, bleu, rouge, noir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Au taekwondo quel est l'ordre des ceintures ? </t>
+  </si>
+  <si>
+    <t>Combien fait le double du triple de la moitié de 6 ?</t>
+  </si>
+  <si>
+    <t>Quel animal est Pan-Pan dans "Bambi" ?</t>
+  </si>
+  <si>
+    <t>Un lapin</t>
+  </si>
+  <si>
+    <t>Une biche</t>
+  </si>
+  <si>
+    <t>Un tigre</t>
+  </si>
+  <si>
+    <t>Un loup</t>
+  </si>
+  <si>
+    <t>Quel nom porte le ragoût hongrois fait avec des oignons et du paprika ?</t>
+  </si>
+  <si>
+    <t>La poutine</t>
+  </si>
+  <si>
+    <t>Le goulasch</t>
+  </si>
+  <si>
+    <t>L'igloo</t>
+  </si>
+  <si>
+    <t>Le bacalhau</t>
+  </si>
+  <si>
+    <t>Le goulash</t>
+  </si>
+  <si>
+    <t>A quelle occasion les joueurs de football forment-ils un mur ?</t>
+  </si>
+  <si>
+    <t>Un corner</t>
+  </si>
+  <si>
+    <t>Un pénalti</t>
+  </si>
+  <si>
+    <t>Un coup franc</t>
+  </si>
+  <si>
+    <t>A l'engagement</t>
+  </si>
+  <si>
+    <t>Quelle pièce d'un jeu d'échecs peut se transformer en reine ?</t>
+  </si>
+  <si>
+    <t>Le roi</t>
+  </si>
+  <si>
+    <t>Le cheval</t>
+  </si>
+  <si>
+    <t>La tour</t>
+  </si>
+  <si>
+    <t>Le pion</t>
+  </si>
+  <si>
+    <t>Combien d'épisodes comporte la saga cinématographique en 2018 : "Star Wars" ?</t>
+  </si>
+  <si>
+    <t>Dans quel pays Ségolène Royal est-elle née ?</t>
+  </si>
+  <si>
+    <t>En France</t>
+  </si>
+  <si>
+    <t>Au Sénégal</t>
+  </si>
+  <si>
+    <t>En Belgique</t>
+  </si>
+  <si>
+    <t>En Allemagne</t>
+  </si>
+  <si>
+    <t>Quel personnage animé a pour gimmick : "C'est vraiment trop injuste !" ?</t>
+  </si>
+  <si>
+    <t>Calimero</t>
+  </si>
+  <si>
+    <t>Titeuf</t>
+  </si>
+  <si>
+    <t>Popey</t>
+  </si>
+  <si>
+    <t>De quel arbre le coing est-il le fruit ?</t>
+  </si>
+  <si>
+    <t>Le cognassier</t>
+  </si>
+  <si>
+    <t>L'arbre a coing</t>
+  </si>
+  <si>
+    <t>Le coing</t>
+  </si>
+  <si>
+    <t>Le coingner</t>
+  </si>
+  <si>
+    <t>Quel joueur de football français était surnommé "le président" ?</t>
+  </si>
+  <si>
+    <t>Thierry Henri</t>
+  </si>
+  <si>
+    <t>Laurent Blanc</t>
+  </si>
+  <si>
+    <t>Lionel Messi</t>
+  </si>
+  <si>
+    <t>Kylian Mbappé</t>
+  </si>
+  <si>
+    <t>Combien de doigts Mickey a-t-il à chaque main ?</t>
+  </si>
+  <si>
+    <t>Au poker, que faut-il ajouter à une paire pour obtenir un full ?</t>
+  </si>
+  <si>
+    <t>Une carte</t>
+  </si>
+  <si>
+    <t>Une autre paire</t>
+  </si>
+  <si>
+    <t>Un brelan</t>
+  </si>
+  <si>
+    <t>Un carré</t>
+  </si>
+  <si>
+    <t>Avec le rouge et le bleu, quelle est la 3e des couleurs dites primaires ?</t>
+  </si>
+  <si>
+    <t>Violet</t>
+  </si>
+  <si>
+    <t>Orange</t>
+  </si>
+  <si>
+    <t>Quelle arme était le symbole du dieu grec Poséidon ?</t>
+  </si>
+  <si>
+    <t>Un arc</t>
+  </si>
+  <si>
+    <t>Un marteau</t>
+  </si>
+  <si>
+    <t>Un trident</t>
+  </si>
+  <si>
+    <t>Une épée</t>
+  </si>
+  <si>
+    <t>Dans quel pays l'emmenthal a-t-il été inventé ?</t>
+  </si>
+  <si>
+    <t>La France</t>
+  </si>
+  <si>
+    <t>L'Espagne</t>
+  </si>
+  <si>
+    <t>La suisse</t>
+  </si>
+  <si>
+    <t>La Belgique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quels animaux de dessins animés sont Tic et Tac ? </t>
+  </si>
+  <si>
+    <t>Des écureuils</t>
+  </si>
+  <si>
+    <t>Des chiens</t>
+  </si>
+  <si>
+    <t>Des chats</t>
+  </si>
+  <si>
+    <t>Des hamsters</t>
+  </si>
+  <si>
+    <t>Quel "petit ourson", ami d'un Indien, a été chanté par Chantal Goya ?</t>
+  </si>
+  <si>
+    <t>Booba</t>
+  </si>
+  <si>
+    <t>Boba</t>
+  </si>
+  <si>
+    <t>Bouba</t>
+  </si>
+  <si>
+    <t>Bobo</t>
+  </si>
+  <si>
+    <t>Qui est, pour moi, le fils du père du frère de ma mère ?</t>
+  </si>
+  <si>
+    <t>Mon cousin</t>
+  </si>
+  <si>
+    <t>Mon conle</t>
+  </si>
+  <si>
+    <t>Ma cousine</t>
+  </si>
+  <si>
+    <t>Mon beau père</t>
+  </si>
+  <si>
+    <t>Mon oncle</t>
+  </si>
+  <si>
+    <t>De quelle couleur est le chapeau du Professeur Tournesol ?</t>
+  </si>
+  <si>
+    <t>Quel était l'instrument de prédilection de Vladimir Horowitz ?</t>
+  </si>
+  <si>
+    <t>La guitare</t>
+  </si>
+  <si>
+    <t>Le piano</t>
+  </si>
+  <si>
+    <t>Le violon</t>
+  </si>
+  <si>
+    <t>La clarinette</t>
+  </si>
+  <si>
+    <t>Quel est le prénom du personnage nommé Leblanc dans "Le Dîner de cons" ?</t>
+  </si>
+  <si>
+    <t>Just</t>
+  </si>
+  <si>
+    <t>Hervé</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>Nicolas</t>
+  </si>
+  <si>
+    <t>Quel signal sonore annonce aux boxeurs le début et la fin d'un round ?</t>
+  </si>
+  <si>
+    <t>Un sifflet</t>
+  </si>
+  <si>
+    <t>L'aribtre crie</t>
+  </si>
+  <si>
+    <t>Le gong</t>
+  </si>
+  <si>
+    <t>Une sonnette</t>
+  </si>
+  <si>
+    <t>Qui est le premier compagnon à rejoindre Luffy dans l'équipage</t>
+  </si>
+  <si>
+    <t>Koby</t>
+  </si>
+  <si>
+    <t>Zoro</t>
+  </si>
+  <si>
+    <t>Nami</t>
+  </si>
+  <si>
+    <t>Chopper</t>
+  </si>
+  <si>
+    <t>Dans quel membre du corps humain est situé l'humérus ?</t>
+  </si>
+  <si>
+    <t>La jambe</t>
+  </si>
+  <si>
+    <t>Le cou</t>
+  </si>
+  <si>
+    <t>Le torse</t>
+  </si>
+  <si>
+    <t>Le bras</t>
+  </si>
+  <si>
+    <t>Avec le fleuret et l'épée, quelle est la troisième arme de l'escrime ?</t>
+  </si>
+  <si>
+    <t>La dague</t>
+  </si>
+  <si>
+    <t>Le sabre</t>
+  </si>
+  <si>
+    <t>La lance</t>
+  </si>
+  <si>
+    <t>Quel insecte attise le coche dans une fable de Jean de La Fontaine ?</t>
+  </si>
+  <si>
+    <t>La mouche</t>
+  </si>
+  <si>
+    <t>La sauterelle</t>
+  </si>
+  <si>
+    <t>Le papillon</t>
+  </si>
+  <si>
+    <t>Le scarabée</t>
+  </si>
+  <si>
+    <t>Renault</t>
+  </si>
+  <si>
+    <t>Seat</t>
+  </si>
+  <si>
+    <t>Kawazaki</t>
+  </si>
+  <si>
+    <t>Ford</t>
+  </si>
+  <si>
+    <t>Overwatch</t>
+  </si>
+  <si>
+    <t>HearthStone</t>
+  </si>
+  <si>
+    <t>Heroes of the Storm</t>
+  </si>
+  <si>
+    <t>Rainbow Six Seige</t>
+  </si>
+  <si>
+    <t>Rainbow Six Siege</t>
+  </si>
+  <si>
+    <t>Laquelle de ces marques n'est pas une marques de voiture ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lequelle de ces jeux n'as pas été developpé par Blizzard ? </t>
+  </si>
+  <si>
+    <t>En Grèce, à base de quel légume vert se prépare le tzatziki ?</t>
+  </si>
+  <si>
+    <t>La carotte</t>
+  </si>
+  <si>
+    <t>Le brocoli</t>
+  </si>
+  <si>
+    <t>Les épinards</t>
+  </si>
+  <si>
+    <t>Le concombre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A quel poète doit-on "Le Dormeur du val" ? </t>
+  </si>
+  <si>
+    <t>Victor Hugo</t>
+  </si>
+  <si>
+    <t>Paul Verlaine</t>
+  </si>
+  <si>
+    <t>Arthur Rimbaud</t>
+  </si>
+  <si>
+    <t>En mathématiques, quel ensemble de nombres est désigné par la lettre R ?</t>
+  </si>
+  <si>
+    <t>Les nombres réduits</t>
+  </si>
+  <si>
+    <t>Les nombres rétréci</t>
+  </si>
+  <si>
+    <t>Les nombres rattrapables</t>
+  </si>
+  <si>
+    <t>Les nombres réels</t>
+  </si>
+  <si>
+    <t>Dans quel groupe de hard-rock Angus Young joue-t-il habillé en collégien ?</t>
+  </si>
+  <si>
+    <t>AC/DC</t>
+  </si>
+  <si>
+    <t>Led Zeppelin</t>
+  </si>
+  <si>
+    <t>Disturbed</t>
+  </si>
+  <si>
+    <t>Guns N' Roses</t>
+  </si>
+  <si>
+    <t>Quelle est la monnaie du Maroc ?</t>
+  </si>
+  <si>
+    <t>Le dirham</t>
+  </si>
+  <si>
+    <t>Le pesos</t>
+  </si>
+  <si>
+    <t>L'Euro</t>
+  </si>
+  <si>
+    <t>A Paris, où reposent les cendres de Jean Moulin ?</t>
+  </si>
+  <si>
+    <t>A l'hotel de ville</t>
+  </si>
+  <si>
+    <t>Au cimtière</t>
+  </si>
+  <si>
+    <t>Au Panthéon</t>
+  </si>
+  <si>
+    <t>Sous la tour eiffel</t>
+  </si>
+  <si>
+    <t>Combien de temps met-on pour faire 30 kilomètres en roulant à 90 km/h ?</t>
+  </si>
+  <si>
+    <t>10 minutes</t>
+  </si>
+  <si>
+    <t>15 minutes</t>
+  </si>
+  <si>
+    <t>20 minutes</t>
+  </si>
+  <si>
+    <t>30 minutes</t>
+  </si>
+  <si>
+    <t>En Russie, qu'est-ce qu'une balalaïka ?</t>
+  </si>
+  <si>
+    <t>Un plat</t>
+  </si>
+  <si>
+    <t>Une danse</t>
+  </si>
+  <si>
+    <t>Une tradition</t>
+  </si>
+  <si>
+    <t>Un instrument</t>
+  </si>
+  <si>
+    <t>Quel édifice berlinois est associé au mot Brandebourg ?</t>
+  </si>
+  <si>
+    <t>Un mur</t>
+  </si>
+  <si>
+    <t>Une porte</t>
+  </si>
+  <si>
+    <t>Une maison</t>
+  </si>
+  <si>
+    <t>Un aqueduc</t>
+  </si>
+  <si>
+    <t>Quel groupe de rock fut surnommé les "Fab Four" ?</t>
+  </si>
+  <si>
+    <t>Les Rolling Stones</t>
+  </si>
+  <si>
+    <t>Les Beatles</t>
+  </si>
+  <si>
+    <t>Pink Floyd</t>
+  </si>
+  <si>
+    <t>Quelles sont dans l'ordre les trois couleurs du drapeau italien ?</t>
+  </si>
+  <si>
+    <t>Vert, Blanc, Rouge</t>
+  </si>
+  <si>
+    <t>Rouge, Blanc, Vert</t>
+  </si>
+  <si>
+    <t>Rouge, Vert, Blanc</t>
+  </si>
+  <si>
+    <t>Vert, Rouge, Blanc</t>
+  </si>
+  <si>
+    <t>De quelle infirmité est affecté le superhéros Daredevil ?</t>
+  </si>
+  <si>
+    <t>Il est aveugle</t>
+  </si>
+  <si>
+    <t>Il est muet</t>
+  </si>
+  <si>
+    <t>Il est sourt</t>
+  </si>
+  <si>
+    <t>Il n'as pas d'odorat</t>
+  </si>
+  <si>
+    <t>Combien font 30% de 30 ?</t>
+  </si>
+  <si>
+    <t>Quel animal monstrueux était Cerbère dans la mythologie grecque ?</t>
+  </si>
+  <si>
+    <t>Un chien</t>
+  </si>
+  <si>
+    <t>Un ours</t>
+  </si>
+  <si>
+    <t>A quel courant musical est associé le groupe Village People ?</t>
+  </si>
+  <si>
+    <t>Disco</t>
+  </si>
+  <si>
+    <t>Rock</t>
+  </si>
+  <si>
+    <t>Rap</t>
+  </si>
+  <si>
+    <t>Reggae</t>
+  </si>
+  <si>
+    <t>Quelle chanteuse interprète le tube "Juste quelqu'un de bien" en 1994 ?</t>
+  </si>
+  <si>
+    <t>Enzo Enzo</t>
+  </si>
+  <si>
+    <t>Lola Lola</t>
+  </si>
+  <si>
+    <t>Jeanette Jeanette</t>
+  </si>
+  <si>
+    <t>Patrick</t>
+  </si>
+  <si>
+    <t>Quel est le premier chiffre à taper sur le clavier d'un portable (3310) pour écrire "Noël" dans un texto ?</t>
+  </si>
+  <si>
+    <t>A quel auteur de théâtre doit-on la pièce "Le Système Ribadier" ?</t>
+  </si>
+  <si>
+    <t>Georges Feydeau</t>
+  </si>
+  <si>
+    <t>Shakespeare</t>
+  </si>
+  <si>
+    <t>Jean Racine</t>
+  </si>
+  <si>
+    <t>Molière</t>
+  </si>
+  <si>
+    <t>Avec le blanc, quelle est l'autre couleur du drapeau danois ?</t>
+  </si>
+  <si>
+    <t>violet</t>
+  </si>
+  <si>
+    <t>A quel auteur-compositeur doit-on la chanson "L'Eau vive" en 1958 ?</t>
+  </si>
+  <si>
+    <t>Guy Béart</t>
+  </si>
+  <si>
+    <t>Black M</t>
+  </si>
+  <si>
+    <t>Serge Lama</t>
+  </si>
+  <si>
+    <t>Nicolas Verin</t>
+  </si>
+  <si>
+    <t>Dans quelle épreuve de saut Jean Galfione s'est-il principalement illustré ?</t>
+  </si>
+  <si>
+    <t>Le saut à la perche</t>
+  </si>
+  <si>
+    <t>Le saut en longueur</t>
+  </si>
+  <si>
+    <t>le saut à ski</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le saut </t>
+  </si>
+  <si>
+    <t>Combien y a-t-il de décimètres dans un décamètre ?</t>
+  </si>
+  <si>
+    <t>Dans un slalom, comment appelle-t-on les espaces entre deux piquets par lesquels doivent passer les skieurs ?</t>
+  </si>
+  <si>
+    <t>Les portes</t>
+  </si>
+  <si>
+    <t>Les ponts</t>
+  </si>
+  <si>
+    <t>Les carres</t>
+  </si>
+  <si>
+    <t>Les pitches</t>
+  </si>
+  <si>
+    <t>A quel pays appartiennent les îles Tuamotu ?</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Espagne</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Angleterre</t>
+  </si>
+  <si>
+    <t>Combien y a-t-il de milligrammes dans un demi-gramme ?</t>
+  </si>
+  <si>
+    <t>Quel animal est associé aux Baskerville dans un roman de Conan Doyle ?</t>
+  </si>
+  <si>
+    <t>Le chien</t>
+  </si>
+  <si>
+    <t>Le chat</t>
+  </si>
+  <si>
+    <t>L'autruche</t>
+  </si>
+  <si>
+    <t>Le lion</t>
+  </si>
+  <si>
+    <t>Quel monument parisien visite-t-on grâce au "fantôme" du livre de Gaston Leroux ?</t>
+  </si>
+  <si>
+    <t>L'Opéra</t>
+  </si>
+  <si>
+    <t>La tour Eiffel</t>
+  </si>
+  <si>
+    <t>Le château de Versaille</t>
+  </si>
+  <si>
+    <t>Le louvre</t>
+  </si>
+  <si>
+    <t>A quelle femme écrivain doit-on le roman "Sous les vents de Neptune" ?</t>
+  </si>
+  <si>
+    <t>Fred Varagas</t>
+  </si>
+  <si>
+    <t>Valp</t>
+  </si>
+  <si>
+    <t>J.K Rolling</t>
+  </si>
+  <si>
+    <t>Maryse Condé</t>
+  </si>
+  <si>
+    <t>En quelle année les billets et pièces en euros ont-ils été mis en circulation ?</t>
+  </si>
+  <si>
+    <t>A quelle saison sont associés les rouleaux proposés dans la cuisine asiatique ?</t>
+  </si>
+  <si>
+    <t>Printemps</t>
+  </si>
+  <si>
+    <t>Eté</t>
+  </si>
+  <si>
+    <t>Automne</t>
+  </si>
+  <si>
+    <t>Hiver</t>
+  </si>
+  <si>
+    <t>Aux jeux Olympiques, quelle est la plus longue distance (en mètre) disputée actuellement en natation ?</t>
+  </si>
+  <si>
+    <t>A quelle série télévisée appartiennent les inspecteurs Pujol et Terrasson ?</t>
+  </si>
+  <si>
+    <t>Brigades du Tigre</t>
+  </si>
+  <si>
+    <t>Starsky et Hutch</t>
+  </si>
+  <si>
+    <t>Alerte Cobra</t>
+  </si>
+  <si>
+    <t>NCIS</t>
+  </si>
+  <si>
+    <t>Quel parti politique, fondé par Jacques Chirac, a été dissous en 2002 pour laisser place à l'UMP ?</t>
+  </si>
+  <si>
+    <t>Le RPR</t>
+  </si>
+  <si>
+    <t>Le FN</t>
+  </si>
+  <si>
+    <t>Le PS</t>
+  </si>
+  <si>
+    <t>L'UDC (lol)</t>
+  </si>
+  <si>
+    <t>Au billard, quelle couleur désigne le dé de craie qui facilite l'adhérence de la queue sur la boule ?</t>
+  </si>
+  <si>
+    <t>Le bleu</t>
+  </si>
+  <si>
+    <t>La craie</t>
+  </si>
+  <si>
+    <t>L'adhérateur</t>
+  </si>
+  <si>
+    <t>Le bouquet</t>
+  </si>
+  <si>
+    <t>Au blackjack, combien de points vaut une dame ?</t>
+  </si>
+  <si>
+    <t>Qui chante le titre "Qui de nous deux" en 2003 ?</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Au poker, que fait un joueur quand il "fait tapis" ?</t>
+  </si>
+  <si>
+    <t>Il mise tout</t>
+  </si>
+  <si>
+    <t>Il arrête de jouer</t>
+  </si>
+  <si>
+    <t>Il récupère son argent</t>
+  </si>
+  <si>
+    <t>Il insulte un autre joueur</t>
+  </si>
+  <si>
+    <t>Quelle est la vingtième lettre de notre alphabet ?</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>Au rugby, combien de joueurs au total entrent sur le terrain au début d'un match du tournoi des 6 Nations ?</t>
+  </si>
+  <si>
+    <t>Qui a été le seul président par interim de la 5e République ?</t>
+  </si>
+  <si>
+    <t>Alain Poher</t>
+  </si>
+  <si>
+    <t>François Hollande</t>
+  </si>
+  <si>
+    <t>Nicolas Sarkozy</t>
+  </si>
+  <si>
+    <t>Abraham Lincoln</t>
+  </si>
+  <si>
+    <t>Aux Etats-Unis, quel nom porte le site qui abrite les visages de quatre présidents taillés dans la roche ?</t>
+  </si>
+  <si>
+    <t>Le mont Rushmore</t>
+  </si>
+  <si>
+    <t>Le mont Grüezi</t>
+  </si>
+  <si>
+    <t>Le mont Rainier</t>
+  </si>
+  <si>
+    <t>Le mont Sir Sandford</t>
+  </si>
+  <si>
+    <t>Comment sont "les paradis" d'après le titre d'un essai de Charles Baudelaire ?</t>
+  </si>
+  <si>
+    <t>Artificiels</t>
+  </si>
+  <si>
+    <t>Reposants</t>
+  </si>
+  <si>
+    <t>Inaccessibles</t>
+  </si>
+  <si>
+    <t>Swag</t>
+  </si>
+  <si>
+    <t>Dans le conte de Charles Perrault, combien le petit Poucet a-t-il de soeurs ?</t>
+  </si>
+  <si>
+    <t>Au rugby, avec quelle partie du corps la remise en jeu s'effectue-t-elle lors d'une touche ?</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t>Pied</t>
+  </si>
+  <si>
+    <t>Coude</t>
+  </si>
+  <si>
+    <t>Aisselles</t>
+  </si>
+  <si>
+    <t>Avec quel comédien Eric Judor forme-t-il un célèbre duo comique ?</t>
+  </si>
+  <si>
+    <t>jamel debbouze</t>
+  </si>
+  <si>
+    <t>ramzy bedia</t>
+  </si>
+  <si>
+    <t>david lafarge pokémon</t>
+  </si>
+  <si>
+    <t>Louis de Funès</t>
+  </si>
+  <si>
+    <t>Quel est le seul volcan actif de la Martinique ?</t>
+  </si>
+  <si>
+    <t>La montagne Pelée</t>
+  </si>
+  <si>
+    <t>La morne Clochette</t>
+  </si>
+  <si>
+    <t>la morne Jacqueline</t>
+  </si>
+  <si>
+    <t>La morne Larcher</t>
+  </si>
+  <si>
+    <t>Quel lien de parenté unit Anne à l'épouse de "Barbe-Bleue" dans le conte de Charles Perrault ?</t>
+  </si>
+  <si>
+    <t>Belle-soeur</t>
+  </si>
+  <si>
+    <t>Sœur</t>
+  </si>
+  <si>
+    <t>Mère</t>
+  </si>
+  <si>
+    <t>Fille</t>
+  </si>
+  <si>
+    <t>De quel célèbre groupe, créé en 1968, Robert Plant est-il le chanteur ?</t>
+  </si>
+  <si>
+    <t>Scorpion</t>
+  </si>
+  <si>
+    <t>Rolling Stones</t>
+  </si>
+  <si>
+    <t>Police</t>
+  </si>
+  <si>
+    <t>Combien d'années s'écoulent entre deux "Mondial de l'automobile" à Paris ?</t>
+  </si>
+  <si>
+    <t>4 ans</t>
+  </si>
+  <si>
+    <t>2 ans</t>
+  </si>
+  <si>
+    <t>1 an</t>
+  </si>
+  <si>
+    <t>10 ans</t>
+  </si>
+  <si>
+    <t>Combien font 4 divisés par 0,25 ?</t>
+  </si>
+  <si>
+    <t>Quel philosophe du 17e siècle est à la base de la pensée cartésienne ?</t>
+  </si>
+  <si>
+    <t>Descartes</t>
+  </si>
+  <si>
+    <t>Voltaire</t>
+  </si>
+  <si>
+    <t>Rousseau</t>
+  </si>
+  <si>
+    <t>Combien y a-t-il de centimètres dans un décimètre ?</t>
+  </si>
+  <si>
+    <t>Quel mot d'origine russe désigne la chambre basse du Parlement en Russie ?</t>
+  </si>
+  <si>
+    <t>Douma</t>
+  </si>
+  <si>
+    <t>Souka</t>
+  </si>
+  <si>
+    <t>Briet</t>
+  </si>
+  <si>
+    <t>Dobriden</t>
+  </si>
+  <si>
+    <t>A quelle famille de plantes le concombre appartient-il ?</t>
+  </si>
+  <si>
+    <t>Les cucurbitacées</t>
+  </si>
+  <si>
+    <t>Les légumes</t>
+  </si>
+  <si>
+    <t>Les légumineuse</t>
+  </si>
+  <si>
+    <t>Les canidés</t>
+  </si>
+  <si>
+    <t>Au restaurant, que vous sert-on si vous avez demandé du goujon ?</t>
+  </si>
+  <si>
+    <t>Du poisson</t>
+  </si>
+  <si>
+    <t>Un vin de préstige</t>
+  </si>
+  <si>
+    <t>Du thé</t>
+  </si>
+  <si>
+    <t>Une escalope panée</t>
+  </si>
+  <si>
+    <t>Quelles notes de musique précédaient le mot "chanter", selon le titre d'une émission télévisée des années 1990 ?</t>
+  </si>
+  <si>
+    <t>Do ré mi</t>
+  </si>
+  <si>
+    <t>Fa si la</t>
+  </si>
+  <si>
+    <t>si la sol</t>
+  </si>
+  <si>
+    <t>Do sol mi</t>
+  </si>
+  <si>
+    <t>Quel mot provençal désigne un lutin, taquin et espiègle, doué de pouvoirs fantastiques ?</t>
+  </si>
+  <si>
+    <t>Farfadet</t>
+  </si>
+  <si>
+    <t>Faradet</t>
+  </si>
+  <si>
+    <t>Goule</t>
+  </si>
+  <si>
+    <t>Gobelin</t>
+  </si>
+  <si>
+    <t>Complétez ces paroles d'une chanson de Michel Sardou de 1975 : "Ne m'appelez plus jamais…</t>
+  </si>
+  <si>
+    <t>Michouille</t>
+  </si>
+  <si>
+    <t>Star</t>
+  </si>
+  <si>
+    <t>Jeff</t>
+  </si>
+  <si>
+    <t>Contre quelle autre créature de saga Alien se bat-il dans un film de 2004 ?</t>
+  </si>
+  <si>
+    <t>Predator</t>
+  </si>
+  <si>
+    <t>Humain</t>
+  </si>
+  <si>
+    <t>Animaux</t>
+  </si>
+  <si>
+    <t>Marciens</t>
+  </si>
+  <si>
+    <t>Au poker, que faut-il ajouter à un brelan pour obtenir un full ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Une dame </t>
+  </si>
+  <si>
+    <t>Un as</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Une paire </t>
+  </si>
+  <si>
+    <t>Une suite</t>
+  </si>
+  <si>
+    <t>Une paire</t>
+  </si>
+  <si>
+    <t>A quel poste Steve Mandanda joue-t-il en équipe de France de football ?</t>
+  </si>
+  <si>
+    <t>Gardien</t>
+  </si>
+  <si>
+    <t>Attaquant</t>
+  </si>
+  <si>
+    <t>Défenceur</t>
+  </si>
+  <si>
+    <t>Millieu</t>
+  </si>
+  <si>
+    <t>Dans la mythologie grecque, quelles femmes guerrières se coupaient le sein droit pour pouvoir tirer à l'arc ?</t>
+  </si>
+  <si>
+    <t>Les Amazones</t>
+  </si>
+  <si>
+    <t>Les valkyries</t>
+  </si>
+  <si>
+    <t>Les déesses</t>
+  </si>
+  <si>
+    <t>Les femmes guerrières</t>
+  </si>
+  <si>
+    <t>De quel ours héros de dessin animé Coco Lapin est-il l'ami ?</t>
+  </si>
+  <si>
+    <t>Winnie l'Ourson</t>
+  </si>
+  <si>
+    <t>Balou</t>
+  </si>
+  <si>
+    <t>Bambi</t>
+  </si>
+  <si>
+    <t>Olaf</t>
+  </si>
+  <si>
+    <t>Dans la série "Friends", qui parmi les six amis travaille chez un grand styliste ?</t>
+  </si>
+  <si>
+    <t>Rachel</t>
+  </si>
+  <si>
+    <t>Phoebe</t>
+  </si>
+  <si>
+    <t>Monica</t>
+  </si>
+  <si>
+    <t>Joey</t>
+  </si>
+  <si>
+    <t>En Espagne, quel mot emploie-t-on généralement pour dire "merci" ?</t>
+  </si>
+  <si>
+    <t>Gracias</t>
+  </si>
+  <si>
+    <t>Danke</t>
+  </si>
+  <si>
+    <t>Grazie</t>
+  </si>
+  <si>
+    <t>Obrigado</t>
+  </si>
+  <si>
+    <t>Dans la chanson "Vive le vent", à qui souhaite-t-on bonne année ?</t>
+  </si>
+  <si>
+    <t>Grand-Mère</t>
+  </si>
+  <si>
+    <t>Père Noël</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grand-Père </t>
+  </si>
+  <si>
+    <t>Maman</t>
+  </si>
+  <si>
+    <t>Dans le conte des frères Grimm, quel titre le père de Blanche-Neige porte-t-il ?</t>
+  </si>
+  <si>
+    <t>Roi</t>
+  </si>
+  <si>
+    <t>Paysan</t>
+  </si>
+  <si>
+    <t>Général</t>
+  </si>
+  <si>
+    <t>Major</t>
+  </si>
+  <si>
+    <t>Dans la mythologie égyptienne, quelle déesse est la soeur et la femme d'Osiris ?</t>
+  </si>
+  <si>
+    <t>Isis</t>
+  </si>
+  <si>
+    <t>Neith</t>
+  </si>
+  <si>
+    <t>Heh</t>
+  </si>
+  <si>
+    <t>Ptah</t>
+  </si>
+  <si>
+    <t>Dans les Charentes, et par définition, quel est l'aliment de base d'une mouclade ?</t>
+  </si>
+  <si>
+    <t>Moules</t>
+  </si>
+  <si>
+    <t>Viande de kebab</t>
+  </si>
+  <si>
+    <t>Poivron</t>
+  </si>
+  <si>
+    <t>Mouton</t>
+  </si>
+  <si>
+    <t>Dans les courses à la voile, quel nom spécifique donne-t-on aux bateaux à deux coques ?</t>
+  </si>
+  <si>
+    <t>Bicoque</t>
+  </si>
+  <si>
+    <t>Catamaran</t>
+  </si>
+  <si>
+    <t>Bateau à deux coque</t>
+  </si>
+  <si>
+    <t>Jack</t>
+  </si>
+  <si>
+    <t>Dans l'exercice de quelle discipline artistique peut-on réaliser des entrechats ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le chant </t>
+  </si>
+  <si>
+    <t>La danse</t>
+  </si>
+  <si>
+    <t>La peinture</t>
+  </si>
+  <si>
+    <t>La sculpture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La danse </t>
+  </si>
+  <si>
+    <t>Dans quel domaine artistique utilise-t-on généralement un diapason ?</t>
+  </si>
+  <si>
+    <t>La musique</t>
+  </si>
+  <si>
+    <t>Complétez les paroles de cette chanson de Johnny Hallyday : "Un jour viendra, tu me diras...</t>
+  </si>
+  <si>
+    <t>Je t'aime</t>
+  </si>
+  <si>
+    <t>Va te faire foutre</t>
+  </si>
+  <si>
+    <t>Je meurs</t>
+  </si>
+  <si>
+    <t>Je pars</t>
+  </si>
+  <si>
+    <t>Quels mots précèdent "à l'italienne" dans le titre d'une chanson de Frédéric François de 1985 ?</t>
+  </si>
+  <si>
+    <t>Dans quel film Will Smith et Martin Lawrence jouent-ils un duo de policiers ?</t>
+  </si>
+  <si>
+    <t>Bad Boys</t>
+  </si>
+  <si>
+    <t>Je suis une légende</t>
+  </si>
+  <si>
+    <t>Independance Day</t>
+  </si>
+  <si>
+    <t>L'arme fatale</t>
+  </si>
+  <si>
+    <t>Qui chante "Pas toi" en 1985 ?</t>
+  </si>
+  <si>
+    <t>Jean Jaques Goldman</t>
+  </si>
+  <si>
+    <t>Jonny Halliday</t>
+  </si>
+  <si>
+    <t>Michel Sardou</t>
+  </si>
+  <si>
+    <t>Niska</t>
+  </si>
+  <si>
+    <t>Quel animal est le roitelet ?</t>
+  </si>
+  <si>
+    <t>Oiseau</t>
+  </si>
+  <si>
+    <t>Chat</t>
+  </si>
+  <si>
+    <t>Chien</t>
+  </si>
+  <si>
+    <t>Poisson</t>
+  </si>
+  <si>
+    <t>Quel chanteur français interprète "Chavirer les foules" en 2007 ?</t>
+  </si>
+  <si>
+    <t>Dans quel pays se trouve le massif des Dolomites ?</t>
+  </si>
+  <si>
+    <t>Italie</t>
+  </si>
+  <si>
+    <t>Grèce</t>
+  </si>
+  <si>
+    <t>Papouasie</t>
+  </si>
+  <si>
+    <t>Dans quel sport l'Américain Maurice Greene s'est-il illustré ?</t>
+  </si>
+  <si>
+    <t>L'athlétisme</t>
+  </si>
+  <si>
+    <t>Le Football Américain</t>
+  </si>
+  <si>
+    <t>Le hockey</t>
+  </si>
+  <si>
+    <t>Le basket</t>
+  </si>
+  <si>
+    <t>En début de partie, combien y a-t-il de pions au total sur un plateau de backgammon ?</t>
+  </si>
+  <si>
+    <t>Selon l'expression familière, que coince-t-on quand on paresse ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La bulle </t>
+  </si>
+  <si>
+    <t>La boule</t>
+  </si>
+  <si>
+    <t>L'ennuis</t>
+  </si>
+  <si>
+    <t>La flemme</t>
+  </si>
+  <si>
+    <t>La bulle</t>
+  </si>
+  <si>
+    <t>Communément, qu'est-ce qu'un moutard en argot ?</t>
+  </si>
+  <si>
+    <t>Un petit garçon</t>
+  </si>
+  <si>
+    <t>Un vélo moteur</t>
+  </si>
+  <si>
+    <t>Un tube de colle</t>
+  </si>
+  <si>
+    <t>Un peneu</t>
+  </si>
+  <si>
+    <t>D'après la fable de Jean de La Fontaine, qui le rat de ville invite-t-il à manger ?</t>
+  </si>
+  <si>
+    <t>Le rat des champs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le chat de la vieille </t>
+  </si>
+  <si>
+    <t>Le rat de campagne</t>
+  </si>
+  <si>
+    <t>La femme du voisin</t>
+  </si>
+  <si>
+    <t>Quelle crème accompagne traditionnellement l'île flottante ?</t>
+  </si>
+  <si>
+    <t>La crème anglaise</t>
+  </si>
+  <si>
+    <t>La double crème fribourgeoise</t>
+  </si>
+  <si>
+    <t>La demi-crème</t>
+  </si>
+  <si>
+    <t>La crème acidulée</t>
+  </si>
+  <si>
+    <t>De quel pays la ville d'Helsinki est-elle la capitale ?</t>
+  </si>
+  <si>
+    <t>Finlande</t>
+  </si>
+  <si>
+    <t>Suède</t>
+  </si>
+  <si>
+    <t>Norveige</t>
+  </si>
+  <si>
+    <t>Quel alcool faut-il mélanger au sirop d'orgeat pour obtenir une mauresque ?</t>
+  </si>
+  <si>
+    <t>Du pastis</t>
+  </si>
+  <si>
+    <t>De la bière</t>
+  </si>
+  <si>
+    <t>De la vodka</t>
+  </si>
+  <si>
+    <t>Du vin</t>
+  </si>
+  <si>
+    <t>Quel mot désigne à la fois un fruit rouge et une collerette en dentelle portée au 16e et 17e siècle ?</t>
+  </si>
+  <si>
+    <t>La fraise</t>
+  </si>
+  <si>
+    <t>La framboise</t>
+  </si>
+  <si>
+    <t>La mirtille</t>
+  </si>
+  <si>
+    <t>En 1967, quel pays lance le sous-marin Le Redoutable ?</t>
+  </si>
+  <si>
+    <t>L'amérique</t>
+  </si>
+  <si>
+    <t>La Russie</t>
+  </si>
+  <si>
+    <t>La Chine</t>
+  </si>
+  <si>
+    <t>Quelle actrice est la mère des trois enfants de Bruce Willis ?</t>
+  </si>
+  <si>
+    <t>Demi Moore</t>
+  </si>
+  <si>
+    <t>Julia Roberts</t>
+  </si>
+  <si>
+    <t>Kate Blachette</t>
+  </si>
+  <si>
+    <t>Kate Winslette</t>
+  </si>
+  <si>
+    <t>Quelle est la capitale du Sénégal ?</t>
+  </si>
+  <si>
+    <t>Dakar</t>
+  </si>
+  <si>
+    <t>Touba</t>
+  </si>
+  <si>
+    <t>Le Caire</t>
+  </si>
+  <si>
+    <t>Fès</t>
+  </si>
+  <si>
+    <t>Dans quelle mer se jette le fleuve Mékong ?</t>
+  </si>
+  <si>
+    <t>La mer Noire</t>
+  </si>
+  <si>
+    <t>La mer de Chine</t>
+  </si>
+  <si>
+    <t>La mer d'Oman</t>
+  </si>
+  <si>
+    <t>La mer Baltique</t>
+  </si>
+  <si>
+    <t>Dans quelle mer peut-on se baigner en Roumanie ?</t>
+  </si>
+  <si>
+    <t>La mer morte</t>
+  </si>
+  <si>
+    <t>Dans le film "A propos d'Henry", qui interprète l'avocat Henry Turner, devenu amnésique après une agression ?</t>
+  </si>
+  <si>
+    <t>Harrison Ford</t>
+  </si>
+  <si>
+    <t>Roger Moore</t>
+  </si>
+  <si>
+    <t>Sean Connery</t>
+  </si>
+  <si>
+    <t>Timothy Dalton</t>
+  </si>
+  <si>
+    <t>Dans quelle ville des Etats-Unis pouvez-vous aller au théâtre à Broadway ?</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>Washington DC</t>
+  </si>
+  <si>
+    <t>Boston</t>
+  </si>
+  <si>
+    <t>Miami</t>
+  </si>
+  <si>
+    <t>Dans quelle ville du Nord Kad Merad est-il muté dans le film "Bienvenue chez les Ch'tis" ?</t>
+  </si>
+  <si>
+    <t>Bergues</t>
+  </si>
+  <si>
+    <t>Dunkerque</t>
+  </si>
+  <si>
+    <t>Roubaix</t>
+  </si>
+  <si>
+    <t>Ronchin</t>
+  </si>
+  <si>
+    <t>Dans quelle ville Pierre de Coubertin institue-t-il, en 1896, les premiers jeux Olympiques de l'ère moderne ?</t>
+  </si>
+  <si>
+    <t>Athènes</t>
+  </si>
+  <si>
+    <t>Coubertin</t>
+  </si>
+  <si>
+    <t>Paris</t>
+  </si>
+  <si>
+    <t>Londres</t>
+  </si>
+  <si>
+    <t>Entre 9 et 59, combien y a-t-il de multiples de 8 ?</t>
+  </si>
+  <si>
+    <t>Quel groupe français interprète la chanson "Butterfly" en 2006 ?</t>
+  </si>
+  <si>
+    <t>Téléphone</t>
+  </si>
+  <si>
+    <t>Superbus</t>
+  </si>
+  <si>
+    <t>Aliage</t>
+  </si>
+  <si>
+    <t>Cellulaire</t>
+  </si>
+  <si>
+    <t>Dans une chanson de 2002, qui affirme être Mister Renard ?</t>
+  </si>
+  <si>
+    <t>Renaud</t>
+  </si>
+  <si>
+    <t>MC Solaar</t>
+  </si>
+  <si>
+    <t>Francis Lalane</t>
+  </si>
+  <si>
+    <t>Florent Panni</t>
+  </si>
+  <si>
+    <t>Dans une de ses chansons, qui demande à son "p'tit loup" de ne pas pleurer en 1979 ?</t>
+  </si>
+  <si>
+    <t>Pierre Perret</t>
+  </si>
+  <si>
+    <t>Pierre Perrois</t>
+  </si>
+  <si>
+    <t>Jaques Brel</t>
+  </si>
+  <si>
+    <t>Sur un clavier d'ordinateur de type AZERTY, quel signe de ponctuation partage sa touche avec le point d'interrogation ?</t>
+  </si>
+  <si>
+    <t>Le point</t>
+  </si>
+  <si>
+    <t>La virgule</t>
+  </si>
+  <si>
+    <t>Le point virgule</t>
+  </si>
+  <si>
+    <t>Le point d'exclamation</t>
+  </si>
+  <si>
+    <t>De combien de départements la région Lorraine est-elle composée ?</t>
+  </si>
+  <si>
+    <t>De quel arbre la noix de coco est-elle le fruit ?</t>
+  </si>
+  <si>
+    <t>Le cocotier</t>
+  </si>
+  <si>
+    <t>Le palmier</t>
+  </si>
+  <si>
+    <t>Le bananier</t>
+  </si>
+  <si>
+    <t>Le pommier</t>
+  </si>
+  <si>
+    <t>De quel footballeur dresse-t-on "un portrait du 21e siècle", d'après le titre d'un documentaire de 2006 ?</t>
+  </si>
+  <si>
+    <t>Zidane</t>
+  </si>
+  <si>
+    <t>Au nord de quel pays asiatique trouve-t-on un mur de plus de 5 000 kilomètres ?</t>
+  </si>
+  <si>
+    <t>Le Japon</t>
+  </si>
+  <si>
+    <t>La Corée du Sud</t>
+  </si>
+  <si>
+    <t>Dans quel pays la ville de Salvador, anciennement appelée Bahia, est-elle située ?</t>
+  </si>
+  <si>
+    <t>Le Bresil</t>
+  </si>
+  <si>
+    <t>Le Portugal</t>
+  </si>
+  <si>
+    <t>Le Chili</t>
+  </si>
+  <si>
+    <t>De quel groupe de superhéros Tornade et Wolverine sont-ils membres ?</t>
+  </si>
+  <si>
+    <t>Les 4 fantastique</t>
+  </si>
+  <si>
+    <t>Les X-men</t>
+  </si>
+  <si>
+    <t>Les fous du volant</t>
+  </si>
+  <si>
+    <t>La super équipe de super héros</t>
+  </si>
+  <si>
+    <t>Quel animal est dit "alezan" quand sa robe est fauve, nuancée de jaune et de rouge ?</t>
+  </si>
+  <si>
+    <t>Le caméléon</t>
+  </si>
+  <si>
+    <t>le Chat</t>
+  </si>
+  <si>
+    <t>L'antilope</t>
+  </si>
+  <si>
+    <t>Avec le beurre et la crème fraîche, quel est l'ingrédient indispensable à la préparation d'une crème ganache ?</t>
+  </si>
+  <si>
+    <t>Le chocolat</t>
+  </si>
+  <si>
+    <t>La noix de coco</t>
+  </si>
+  <si>
+    <t>Le sucre</t>
+  </si>
+  <si>
+    <t>De quel pays Dmitri Medvedev a-t-il été élu président en mars 2008 ?</t>
+  </si>
+  <si>
+    <t>Russie</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>Biélorussi</t>
+  </si>
+  <si>
+    <t>Moldavie</t>
+  </si>
+  <si>
+    <t>Quel est l'instrument de musique de prédilection de Gilbert Montagné ?</t>
+  </si>
+  <si>
+    <t>La trompette</t>
+  </si>
+  <si>
+    <t>Le saxophone</t>
+  </si>
+  <si>
+    <t>De quel pays la Castille est-elle une région ?</t>
+  </si>
+  <si>
+    <t>L'Italie</t>
+  </si>
+  <si>
+    <t>Quel organe du corps humain appelle-t-on familièrement le palpitant ?</t>
+  </si>
+  <si>
+    <t>Le cœur</t>
+  </si>
+  <si>
+    <t>Le pénis</t>
+  </si>
+  <si>
+    <t>Le poumon</t>
+  </si>
+  <si>
+    <t>Le rein</t>
+  </si>
+  <si>
+    <t>Dans son one-man-show de 2004 intitulé "Romantique", quel humoriste écrit une lettre poétique à Véro ?</t>
+  </si>
+  <si>
+    <t>Frank Dubosc</t>
+  </si>
+  <si>
+    <t>Omar Sy</t>
+  </si>
+  <si>
+    <t>Gad Elmaleh</t>
+  </si>
+  <si>
+    <t>Coluche</t>
+  </si>
+  <si>
+    <t>Selon l'expression, quel fruit se garde-t-on "pour la soif" ?</t>
+  </si>
+  <si>
+    <t>Une poire</t>
+  </si>
+  <si>
+    <t>Une pomme</t>
+  </si>
+  <si>
+    <t>Une pasteque</t>
+  </si>
+  <si>
+    <t>Une orange</t>
+  </si>
+  <si>
+    <t>De quelle couleur est la chemise de Lucky Luke ?</t>
+  </si>
+  <si>
+    <t>Verte</t>
+  </si>
+  <si>
+    <t>De quelle couleur est la coquille d'oeuf que Calimero a sur la tête ?</t>
+  </si>
+  <si>
+    <t>Blanche</t>
+  </si>
+  <si>
+    <t>Brune</t>
+  </si>
+  <si>
+    <t>Noire</t>
+  </si>
+  <si>
+    <t>Selon la superstition, quel objet condamne celui qui le brise à sept ans de malheur ?</t>
+  </si>
+  <si>
+    <t>Le miroir</t>
+  </si>
+  <si>
+    <t>La corde de guitare</t>
+  </si>
+  <si>
+    <t>Le manche d'un ballet</t>
+  </si>
+  <si>
+    <t>Le lacet d'une chaussure</t>
+  </si>
+  <si>
+    <t>Quel sport pratiquez-vous si vous réalisez un "birdie", un "eagle" ou un "albatros" ?</t>
+  </si>
+  <si>
+    <t>Le golf</t>
+  </si>
+  <si>
+    <t>Le tennis</t>
+  </si>
+  <si>
+    <t>Le badminton</t>
+  </si>
+  <si>
+    <t>La course de rallye</t>
+  </si>
+  <si>
+    <t>Quel animal donne son nom à un slip d'homme muni d'une poche ouverte devant ?</t>
+  </si>
+  <si>
+    <t>Le kangourou</t>
+  </si>
+  <si>
+    <t>L'élephant</t>
+  </si>
+  <si>
+    <t>Le kiwi</t>
+  </si>
+  <si>
+    <t>L'espadon</t>
+  </si>
+  <si>
+    <t>Dans quel pays la ville de Tombouctou est-elle située ?</t>
+  </si>
+  <si>
+    <t>Le Mali</t>
+  </si>
+  <si>
+    <t>Le Maroc</t>
+  </si>
+  <si>
+    <t>L'Iran</t>
+  </si>
+  <si>
+    <t>L'Irak</t>
+  </si>
+  <si>
+    <t>De quel fruit utilisé comme un condiment le pili-pili est-il une variété ?</t>
+  </si>
+  <si>
+    <t>Le piment</t>
+  </si>
+  <si>
+    <t>Le poivron</t>
+  </si>
+  <si>
+    <t>La noix de muscade</t>
+  </si>
+  <si>
+    <t>La noix de cajou</t>
+  </si>
+  <si>
+    <t>Dans quel livre peut-on lire la phrase : "On ne voit bien qu'avec le coeur, l'essentiel est invisible pour les yeux" ?</t>
+  </si>
+  <si>
+    <t>Harry Potter</t>
+  </si>
+  <si>
+    <t>Le petit prince</t>
+  </si>
+  <si>
+    <t>Le seigneur des anneaux</t>
+  </si>
+  <si>
+    <t>Fahrenheit 451</t>
+  </si>
+  <si>
+    <t>En France, quel est le seul stade pouvant accueillir jusqu'à 80 000 spectateurs pour un match de football ?</t>
+  </si>
+  <si>
+    <t>Le Stade de France</t>
+  </si>
+  <si>
+    <t>Le parc des Princes</t>
+  </si>
+  <si>
+    <t>Orange vélodrome</t>
+  </si>
+  <si>
+    <t>Stade Pierre-Mauroy</t>
+  </si>
+  <si>
+    <t>Sur quelle couverture d'album voit-on Tintin et Milou cachés dans un vase ?</t>
+  </si>
+  <si>
+    <t>Le Lotus bleu</t>
+  </si>
+  <si>
+    <t>Le Lotus rouge</t>
+  </si>
+  <si>
+    <t>Le Lotus vert</t>
+  </si>
+  <si>
+    <t>Le Lotuce violet</t>
+  </si>
+  <si>
+    <t>Dans quel sport pouvons nous faire la faute appelée "Retour en zone" ?</t>
+  </si>
+  <si>
+    <t>Le basketball</t>
+  </si>
+  <si>
+    <t>Le football</t>
+  </si>
+  <si>
+    <t>Le baseball</t>
+  </si>
+  <si>
+    <t>Le water-polo</t>
+  </si>
+  <si>
+    <t>Quelle est, après Jupiter, la 2e plus grosse planète du système solaire ?</t>
+  </si>
+  <si>
+    <t>Saturne</t>
+  </si>
+  <si>
+    <t>Pluton</t>
+  </si>
+  <si>
+    <t>Jupiter</t>
+  </si>
+  <si>
+    <t>Neptune</t>
+  </si>
+  <si>
+    <t>Quel animal est la tanche ?</t>
+  </si>
+  <si>
+    <t>Un chat</t>
+  </si>
+  <si>
+    <t>Comment appelle-t-on les habitants de Reims ?</t>
+  </si>
+  <si>
+    <t>Les Rémois</t>
+  </si>
+  <si>
+    <t>Les Rémis</t>
+  </si>
+  <si>
+    <t>Les Rémiens</t>
+  </si>
+  <si>
+    <t>Les Rémifasolasido</t>
+  </si>
+  <si>
+    <t>Qu'ajoute-t-on à un croque-monsieur pour en faire un croque-madame ?</t>
+  </si>
+  <si>
+    <t>Deux tranches de jambons</t>
+  </si>
+  <si>
+    <t>Un œuf au plat</t>
+  </si>
+  <si>
+    <t>Du bacon</t>
+  </si>
+  <si>
+    <t>Un pain brioché</t>
+  </si>
+  <si>
+    <t>Combien de diagonales un losange possède-t-il ?</t>
+  </si>
+  <si>
+    <t>Combien de cordes un ukulélé traditionnel comporte-t-il ?</t>
+  </si>
+  <si>
+    <t>Dans quelle ville italienne se trouve le fameux pont du Rialto ?</t>
+  </si>
+  <si>
+    <t>Rome</t>
+  </si>
+  <si>
+    <t>Venise</t>
+  </si>
+  <si>
+    <t>Valence</t>
+  </si>
+  <si>
+    <t>Florence</t>
+  </si>
+  <si>
+    <t>Qui sont la Femme invisible, l'Homme élastique, la Torche et la Chose ?</t>
+  </si>
+  <si>
+    <t>Justice League</t>
+  </si>
+  <si>
+    <t>Les 4 fantastiques</t>
+  </si>
+  <si>
+    <t>Les 4 Avengers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sur une télécommande, quelle touche a pour symbole un carré plein ? </t>
+  </si>
+  <si>
+    <t>Pause</t>
+  </si>
+  <si>
+    <t>Play</t>
+  </si>
+  <si>
+    <t>Stop</t>
+  </si>
+  <si>
+    <t>Avancer d'un épisode</t>
+  </si>
+  <si>
+    <t>A quel âge n'est-on pas sérieux selon un poème d'Arthur Rimbaud ?</t>
+  </si>
+  <si>
+    <t>17 ans</t>
+  </si>
+  <si>
+    <t>18 ans</t>
+  </si>
+  <si>
+    <t>20 ans</t>
+  </si>
+  <si>
+    <t>50 ans</t>
+  </si>
+  <si>
+    <t>Quelle lettre trouve-t-on juste après le E sur un clavier d'ordinateur ?</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>En 2005, quel héros de cinéma demande souvent si "ça farte" ?</t>
+  </si>
+  <si>
+    <t>Ethan Hunt</t>
+  </si>
+  <si>
+    <t>Brice de Nice</t>
+  </si>
+  <si>
+    <t>Tony Stark</t>
+  </si>
+  <si>
+    <t>Sacha de Bourg Palette</t>
+  </si>
+  <si>
+    <t>Dans quelle matière apprend-on les identités remarquables ?</t>
+  </si>
+  <si>
+    <t>Mathématiques</t>
+  </si>
+  <si>
+    <t>Français</t>
+  </si>
+  <si>
+    <t>Histoire</t>
+  </si>
+  <si>
+    <t>Physique</t>
+  </si>
+  <si>
+    <t>En gymnastique, aux JO, quel agrès long de 5 m est reservé aux femmes ?</t>
+  </si>
+  <si>
+    <t>La poutre</t>
+  </si>
+  <si>
+    <t>Les barres paralèlles</t>
+  </si>
+  <si>
+    <t>Les anneaux</t>
+  </si>
+  <si>
+    <t>Cheval d'arçon</t>
+  </si>
+  <si>
+    <t>En Formule 1, quel drapeau signale à un pilote qu'il a une pénalité ?</t>
+  </si>
+  <si>
+    <t>Un drapeau rouge</t>
+  </si>
+  <si>
+    <t>Un drapeau noir</t>
+  </si>
+  <si>
+    <t>Un drapeau quadrillé</t>
+  </si>
+  <si>
+    <t>Un drapeau blanc</t>
+  </si>
+  <si>
+    <t>En Amérique du Nord, au cours de quelle saison a lieu l'été indien ?</t>
+  </si>
+  <si>
+    <t>Été</t>
+  </si>
+  <si>
+    <t>Quel nom de poisson désigne un piquet de tente de camping ?</t>
+  </si>
+  <si>
+    <t>La carpe</t>
+  </si>
+  <si>
+    <t>Le brochet</t>
+  </si>
+  <si>
+    <t>Le néon</t>
+  </si>
+  <si>
+    <t>Le sardine</t>
+  </si>
+  <si>
+    <t>La sardine</t>
+  </si>
+  <si>
+    <t>Quel théorème permet de calculer le carré de l'hypoténuse ?</t>
+  </si>
+  <si>
+    <t>Thalès</t>
+  </si>
+  <si>
+    <t>Pythagore</t>
+  </si>
+  <si>
+    <t>Le théorème de l'angle</t>
+  </si>
+  <si>
+    <t>Le théorème de l'arc capable</t>
+  </si>
+  <si>
+    <t>De combien de petits tambours un bongo est-il composé ?</t>
+  </si>
+  <si>
+    <t>Combien y a-t-il habituellement de trous dans une boule de bowling ?</t>
+  </si>
+  <si>
+    <t>Qu'est-ce que la Soufrière en Guadeloupe ?</t>
+  </si>
+  <si>
+    <t>Un édifice</t>
+  </si>
+  <si>
+    <t>Une mer</t>
+  </si>
+  <si>
+    <t>Un entreprise soufleuse de verre</t>
+  </si>
+  <si>
+    <t>Un volcan</t>
+  </si>
+  <si>
+    <t>Qui était le DJ attitré d'une émission de Thierry Ardisson sur France 2 ?</t>
+  </si>
+  <si>
+    <t>Philippe Corti</t>
+  </si>
+  <si>
+    <t>Dj Khaled</t>
+  </si>
+  <si>
+    <t>David Guetta</t>
+  </si>
+  <si>
+    <t>Marshmello</t>
+  </si>
+  <si>
+    <t>Phillipe Corti</t>
+  </si>
+  <si>
+    <t>Quelle est l'unité monétaire principale de l'Inde ?</t>
+  </si>
+  <si>
+    <t>Le Pesos</t>
+  </si>
+  <si>
+    <t>Le Dollar</t>
+  </si>
+  <si>
+    <t>La roupie</t>
+  </si>
+  <si>
+    <t>Aux jeux Olympiques, de combien de spécialités est composé le décathlon ?</t>
+  </si>
+  <si>
+    <t>Que mesure-t-on en kelvins ?</t>
+  </si>
+  <si>
+    <t>L'humidité</t>
+  </si>
+  <si>
+    <t>La température</t>
+  </si>
+  <si>
+    <t>La pression</t>
+  </si>
+  <si>
+    <t>La tension</t>
+  </si>
+  <si>
+    <t>En informatique, quel terme français correspond au mot "software" ?</t>
+  </si>
+  <si>
+    <t>Logicels</t>
+  </si>
+  <si>
+    <t>Composant</t>
+  </si>
+  <si>
+    <t>Ordinateur</t>
+  </si>
+  <si>
+    <t>Programmation</t>
+  </si>
+  <si>
+    <t>Logiciel</t>
+  </si>
+  <si>
+    <t>Combien de coques a un catamaran ?</t>
+  </si>
+  <si>
+    <t>Le rouge</t>
+  </si>
+  <si>
+    <t>Le vert</t>
+  </si>
+  <si>
+    <t>Le blanc</t>
+  </si>
+  <si>
+    <t>Avec le pied</t>
+  </si>
+  <si>
+    <t>Avec la tête</t>
+  </si>
+  <si>
+    <t>Avec le genoux</t>
+  </si>
+  <si>
+    <t>Avec les mains</t>
+  </si>
+  <si>
+    <t>Combien coûte une paire de chaussures à 80 euros soldée à moins 20% ?</t>
+  </si>
+  <si>
+    <t>C'est sa mère</t>
+  </si>
+  <si>
+    <t>C'est sa tente</t>
+  </si>
+  <si>
+    <t>C'est sa grand-mère</t>
+  </si>
+  <si>
+    <t>C'est sa sœur</t>
+  </si>
+  <si>
+    <t>Qui chante "Pas de boogie-woogie" en 1976 ?</t>
+  </si>
+  <si>
+    <t>Eddy Mitchell</t>
+  </si>
+  <si>
+    <t>Elvis Presley</t>
+  </si>
+  <si>
+    <t>Jean-Jaques Goldman</t>
+  </si>
+  <si>
+    <t>Charles Aznavour</t>
+  </si>
+  <si>
+    <t>Que perd un serpent quand il mue ?</t>
+  </si>
+  <si>
+    <t>Sa queue</t>
+  </si>
+  <si>
+    <t>Sa tête</t>
+  </si>
+  <si>
+    <t>Sa peau</t>
+  </si>
+  <si>
+    <t>Ses yeux</t>
+  </si>
+  <si>
+    <t>Dans le code Morse, quelle lettre est représentée par trois points ?</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>Entre 3 et 10 mois, comment s'appelle le petit de la poule ?</t>
+  </si>
+  <si>
+    <t>Le coq</t>
+  </si>
+  <si>
+    <t>Le poussin</t>
+  </si>
+  <si>
+    <t>Le poulet</t>
+  </si>
+  <si>
+    <t>L'œuf</t>
+  </si>
+  <si>
+    <t>Quel chanteur de pop anglaise interprète le tube : "Relax, Take It Easy" ?</t>
+  </si>
+  <si>
+    <t>Mika</t>
+  </si>
+  <si>
+    <t>Miko</t>
+  </si>
+  <si>
+    <t>Miku</t>
+  </si>
+  <si>
+    <t>Mike</t>
+  </si>
+  <si>
+    <t>De quel pays est originaire le groupe electro Daft Punk ?</t>
+  </si>
+  <si>
+    <t>L'Autralie</t>
+  </si>
+  <si>
+    <t>L'Angleterre</t>
+  </si>
+  <si>
+    <t>L'Amérique</t>
+  </si>
+  <si>
+    <t>De quelle couleur est la cape de Superman ?</t>
+  </si>
+  <si>
+    <t>En 2009, quel tennisman a remporté le tournoi simple messieurs de Roland-Garros ?</t>
+  </si>
+  <si>
+    <t>Nadal</t>
+  </si>
+  <si>
+    <t>Djokovic</t>
+  </si>
+  <si>
+    <t>Federer</t>
+  </si>
+  <si>
+    <t>Wawrinka</t>
+  </si>
+  <si>
+    <t>Dans la saga cinématographique : "La Guerre des étoiles", quelle est l'arme de prédilection des chevaliers Jedi ?</t>
+  </si>
+  <si>
+    <t>Un pistolet</t>
+  </si>
+  <si>
+    <t>Un sabre laser</t>
+  </si>
+  <si>
+    <t>A quel pays fait référence l'adjectif nippon ?</t>
+  </si>
+  <si>
+    <t>Le Congo</t>
+  </si>
+  <si>
+    <t>Quel adjectif qualifie un caractère d'imprimerie légèrement penché à droite ?</t>
+  </si>
+  <si>
+    <t>Gras</t>
+  </si>
+  <si>
+    <t>Souligné</t>
+  </si>
+  <si>
+    <t>Italique</t>
+  </si>
+  <si>
+    <t>Arial</t>
+  </si>
+  <si>
+    <t>A quelle forme géométrique associe-t-on traditionnellement la France métropolitaine ?</t>
+  </si>
+  <si>
+    <t>Un triangle</t>
+  </si>
+  <si>
+    <t>Un hexagone</t>
+  </si>
+  <si>
+    <t>Un polygone</t>
+  </si>
+  <si>
+    <t>Complétez le titre de ce film d'Alain Resnais sorti en 1997 : "On connaît la...</t>
+  </si>
+  <si>
+    <t>Chanson</t>
+  </si>
+  <si>
+    <t>Misère</t>
+  </si>
+  <si>
+    <t>Vie</t>
+  </si>
+  <si>
+    <t>Mélodie</t>
+  </si>
+  <si>
+    <t>Qu'est-ce qui est allumé en premier dans le générique de la série télévisée "Mission : impossible" ?</t>
+  </si>
+  <si>
+    <t>Une allumette</t>
+  </si>
+  <si>
+    <t>Une mèche</t>
+  </si>
+  <si>
+    <t>Une bombe</t>
+  </si>
+  <si>
+    <t>La lumière</t>
+  </si>
+  <si>
+    <t>De laquelle des quatre couleurs d'un jeu de cartes Judith, Charles et La Hire sont-ils les figures ?</t>
+  </si>
+  <si>
+    <t>Cœur</t>
+  </si>
+  <si>
+    <t>Pique</t>
+  </si>
+  <si>
+    <t>Carreau</t>
+  </si>
+  <si>
+    <t>Trèfle</t>
+  </si>
+  <si>
+    <t>En géométrie, dans un repère orthonormé, quelle lettre représente le point d'origine ?</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Pour faire de la pâte à pain, quel ingrédient ajoute-t-on nécessairement à la farine, à la levure et au sel ?</t>
+  </si>
+  <si>
+    <t>L'eau</t>
+  </si>
+  <si>
+    <t>Le lait</t>
+  </si>
+  <si>
+    <t>Les œufs</t>
+  </si>
+  <si>
+    <t>Complétez ce slogan des années 1970 : "En France, on n'a pas de pétrole, mais on a...</t>
+  </si>
+  <si>
+    <t>Des idées</t>
+  </si>
+  <si>
+    <t>L'énergie</t>
+  </si>
+  <si>
+    <t>L'argent</t>
+  </si>
+  <si>
+    <t>Les voitures</t>
+  </si>
+  <si>
+    <t>Quel tissu utilisé en lingerie de luxe fait la réputation de la ville de Calais ?</t>
+  </si>
+  <si>
+    <t>La dentelle</t>
+  </si>
+  <si>
+    <t>La soie</t>
+  </si>
+  <si>
+    <t>Le jeans</t>
+  </si>
+  <si>
+    <t>Le cotton</t>
+  </si>
+  <si>
+    <t>Selon le proverbe, en quoi est-on malheureux si on est "heureux au jeu" ?</t>
+  </si>
+  <si>
+    <t>En amour</t>
+  </si>
+  <si>
+    <t>En amitié</t>
+  </si>
+  <si>
+    <t>En sex</t>
+  </si>
+  <si>
+    <t>En bonheur</t>
+  </si>
+  <si>
+    <t>A son dernier repas, de combien d'apôtres Jésus-Christ était-il entouré ?</t>
+  </si>
+  <si>
+    <t>Au restaurant, que mangerez-vous en commandant du chaource ?</t>
+  </si>
+  <si>
+    <t>Du fromage</t>
+  </si>
+  <si>
+    <t>Du bœuf</t>
+  </si>
+  <si>
+    <t>De l'agneau</t>
+  </si>
+  <si>
+    <t>Quel signe de ponctuation est l'équivalent de l'expression "et caetera" ?</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>;</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>Comment se prénommait Racine, l'auteur de "Britannicus" ?</t>
+  </si>
+  <si>
+    <t>Jean</t>
+  </si>
+  <si>
+    <t>Pierre</t>
+  </si>
+  <si>
+    <t>Alessio</t>
+  </si>
+  <si>
+    <t>Sur quelle petite île de la baie de New York la statue de la Liberté est-elle située ?</t>
+  </si>
+  <si>
+    <t>Liberty Island</t>
+  </si>
+  <si>
+    <t>New Island</t>
+  </si>
+  <si>
+    <t>Shark Island</t>
+  </si>
+  <si>
+    <t>New Bay</t>
+  </si>
+  <si>
+    <t>Quelle est la capitale du Portugal ?</t>
+  </si>
+  <si>
+    <t>Porto</t>
+  </si>
+  <si>
+    <t>Lisbonne</t>
+  </si>
+  <si>
+    <t>Madrid</t>
+  </si>
+  <si>
+    <t>Quel est le vrai prénom d'Orlando, agent artistique et frère cadet de Dalida ?</t>
+  </si>
+  <si>
+    <t>Franck</t>
+  </si>
+  <si>
+    <t>Bruno</t>
+  </si>
+  <si>
+    <t>Quelle couleur se dit "black" en anglais ?</t>
+  </si>
+  <si>
+    <t>Blanc</t>
+  </si>
+  <si>
+    <t>Quel mois de l'année, les amoureux fêtent-ils la Saint-Valentin ?</t>
+  </si>
+  <si>
+    <t>Janvier</t>
+  </si>
+  <si>
+    <t>Février</t>
+  </si>
+  <si>
+    <t>Mars</t>
+  </si>
+  <si>
+    <t>Avril</t>
+  </si>
+  <si>
+    <t>En 2010, de quelle épreuve d'athlétisme Romain Barras est-il devenu champion d'Europe ?</t>
+  </si>
+  <si>
+    <t>Le décathlon</t>
+  </si>
+  <si>
+    <t>Le sprint</t>
+  </si>
+  <si>
+    <t>A quel pays appartient le Groenland ?</t>
+  </si>
+  <si>
+    <t>Le Danemark</t>
+  </si>
+  <si>
+    <t>La Norvège</t>
+  </si>
+  <si>
+    <t>La Suède</t>
+  </si>
+  <si>
+    <t>L'Islande</t>
+  </si>
+  <si>
+    <t>Quel est le nom donné à la grande cloche de la tour de l'horloge du Palais de Westminster, à Londres ?</t>
+  </si>
+  <si>
+    <t>Top of the Rock</t>
+  </si>
+  <si>
+    <t>Empire State Building</t>
+  </si>
+  <si>
+    <t>Big Ben</t>
+  </si>
+  <si>
+    <t>Chez le lapin, à part les dents, quel organe est réputé pour sa longueur ?</t>
+  </si>
+  <si>
+    <t>Les oreilles</t>
+  </si>
+  <si>
+    <t>Les pattes</t>
+  </si>
+  <si>
+    <t>Les yeux</t>
+  </si>
+  <si>
+    <t>Combien trouve-t-on de nombres premiers, entre 1 et 10 ?</t>
+  </si>
+  <si>
+    <t>L'hymne britannique actuel est le "God Save the...</t>
+  </si>
+  <si>
+    <t>King</t>
+  </si>
+  <si>
+    <t>Prince</t>
+  </si>
+  <si>
+    <t>Princess</t>
+  </si>
+  <si>
+    <t>L'ensemble montagneux du Jura s'étend sur la France, l'Allemagne et...</t>
+  </si>
+  <si>
+    <t>L'Autriche</t>
+  </si>
+  <si>
+    <t>Sur Terre, avec le Soleil, quel corps céleste exerce son influence sur les marées ?</t>
+  </si>
+  <si>
+    <t>La Lune</t>
+  </si>
+  <si>
+    <t>Un Sattelite</t>
+  </si>
+  <si>
+    <t>En 1997, dans quel film de science-fiction de Luc Besson, Bruce Willis incarne-t-il Korben Dallas ?</t>
+  </si>
+  <si>
+    <t>Le Deuxième Élément</t>
+  </si>
+  <si>
+    <t>Le Troisième Élément</t>
+  </si>
+  <si>
+    <t>Le Quatrième Élément</t>
+  </si>
+  <si>
+    <t>Le Cinquième Élément</t>
+  </si>
+  <si>
+    <t>Le Cinqième Élément</t>
+  </si>
+  <si>
+    <t>A quel nom commun féminin se rapporte l'adjectif cruciforme ?</t>
+  </si>
+  <si>
+    <t>La croix</t>
+  </si>
+  <si>
+    <t>Le carré</t>
+  </si>
+  <si>
+    <t>Le triangle</t>
+  </si>
+  <si>
+    <t>Le cube</t>
+  </si>
+  <si>
+    <t>Sous quel nom connaît-on mieux l'actrice française Sylvette Herry ?</t>
+  </si>
+  <si>
+    <t>Piou-Piou</t>
+  </si>
+  <si>
+    <t>Miou-Miou</t>
+  </si>
+  <si>
+    <t>Riou-Riou</t>
+  </si>
+  <si>
+    <t>Tiou-Tiou</t>
+  </si>
+  <si>
+    <t>Quel est le suffixe du mot "géologue" ?</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>Géo</t>
+  </si>
+  <si>
+    <t>Logue</t>
+  </si>
+  <si>
+    <t>Redoutable prédatrice, l'orque est surnommée la baleine..</t>
+  </si>
+  <si>
+    <t>Soigneuse</t>
+  </si>
+  <si>
+    <t>Tueuse</t>
+  </si>
+  <si>
+    <t>Plaisante</t>
+  </si>
+  <si>
+    <t>Énervée</t>
+  </si>
+  <si>
+    <t>Quel personnage de jeu vidéo, en forme de rond jaune, doit avaler des pastilles avant de manger des fantômes ?</t>
+  </si>
+  <si>
+    <t>PacMan</t>
+  </si>
+  <si>
+    <t>Mario</t>
+  </si>
+  <si>
+    <t>Super Smash Bros</t>
+  </si>
+  <si>
+    <t>Quelle articulation, saillante lorsque pliée, est située à la jonction du bras et de l'avant-bras ?</t>
+  </si>
+  <si>
+    <t>Le Cubitus</t>
+  </si>
+  <si>
+    <t>Le Radius</t>
+  </si>
+  <si>
+    <t>L'Umérus</t>
+  </si>
+  <si>
+    <t>Le Coude</t>
+  </si>
+  <si>
+    <t>En quelle année la République populaire de Chine a-t-elle été proclamée ?</t>
+  </si>
+  <si>
+    <t>Quel est le plus long fleuve d'Afrique ?</t>
+  </si>
+  <si>
+    <t>La Molombe</t>
+  </si>
+  <si>
+    <t>Le Nil</t>
+  </si>
+  <si>
+    <t>L'Orbe</t>
+  </si>
+  <si>
+    <t>L'Amazone</t>
+  </si>
+  <si>
+    <t>En langage familier, que désignent les mots "piquette" et "picrate" ?</t>
+  </si>
+  <si>
+    <t>Du mauvais vin</t>
+  </si>
+  <si>
+    <t>Du mauvais Rhum</t>
+  </si>
+  <si>
+    <t>Du mauvais Whisky</t>
+  </si>
+  <si>
+    <t>De la mauvaise eau</t>
+  </si>
+  <si>
+    <t>Quel nom familier, a-t-on donné aux soldats de la Première Guerre mondiale ?</t>
+  </si>
+  <si>
+    <t>Les soldats</t>
+  </si>
+  <si>
+    <t>Les survivants</t>
+  </si>
+  <si>
+    <t>Les ennemis</t>
+  </si>
+  <si>
+    <t>Les poilus</t>
+  </si>
+  <si>
+    <t>Si vous achetez une demi-livre de beurre au marché, quel sera son poids en grammes ?</t>
+  </si>
+  <si>
+    <t>200g</t>
+  </si>
+  <si>
+    <t>250g</t>
+  </si>
+  <si>
+    <t>500g</t>
+  </si>
+  <si>
+    <t>1000g</t>
+  </si>
+  <si>
+    <t>Quel est le dixième signe du zodiaque, dans lequel le Soleil entre au solstice d'hiver ?</t>
+  </si>
+  <si>
+    <t>La balance</t>
+  </si>
+  <si>
+    <t>Le poisson</t>
+  </si>
+  <si>
+    <t>Le capricorne</t>
+  </si>
+  <si>
+    <t>Dans quel sport peut-on "putter" ?</t>
+  </si>
+  <si>
+    <t>Combien y a-t-il de couleurs sur le drapeau grec ?</t>
   </si>
 </sst>
 </file>
@@ -884,7 +3851,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1166,16 +4137,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:F300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+    <sheetView tabSelected="1" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
+      <selection activeCell="F303" sqref="F303"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="83.42578125" customWidth="1"/>
-    <col min="2" max="2" width="29.140625" customWidth="1"/>
+    <col min="1" max="1" width="96.28515625" customWidth="1"/>
+    <col min="2" max="2" width="34.5703125" customWidth="1"/>
     <col min="3" max="3" width="37.42578125" customWidth="1"/>
     <col min="4" max="4" width="34.7109375" customWidth="1"/>
     <col min="5" max="6" width="34" customWidth="1"/>
@@ -2243,67 +5214,67 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>279</v>
+      </c>
+      <c r="B54" t="s">
         <v>248</v>
       </c>
-      <c r="B54" t="s">
+      <c r="C54" t="s">
         <v>249</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>250</v>
       </c>
-      <c r="D54" t="s">
+      <c r="E54" t="s">
         <v>251</v>
       </c>
-      <c r="E54" t="s">
-        <v>252</v>
-      </c>
       <c r="F54" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
+        <v>278</v>
+      </c>
+      <c r="B55" t="s">
         <v>253</v>
       </c>
-      <c r="B55" t="s">
+      <c r="C55" t="s">
+        <v>252</v>
+      </c>
+      <c r="D55" t="s">
+        <v>254</v>
+      </c>
+      <c r="E55" t="s">
         <v>255</v>
       </c>
-      <c r="C55" t="s">
+      <c r="F55" t="s">
         <v>254</v>
-      </c>
-      <c r="D55" t="s">
-        <v>256</v>
-      </c>
-      <c r="E55" t="s">
-        <v>257</v>
-      </c>
-      <c r="F55" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>277</v>
+      </c>
+      <c r="B56" t="s">
+        <v>256</v>
+      </c>
+      <c r="C56" t="s">
+        <v>257</v>
+      </c>
+      <c r="D56" t="s">
         <v>258</v>
       </c>
-      <c r="B56" t="s">
+      <c r="E56" t="s">
         <v>259</v>
       </c>
-      <c r="C56" t="s">
-        <v>260</v>
-      </c>
-      <c r="D56" t="s">
-        <v>261</v>
-      </c>
-      <c r="E56" t="s">
-        <v>262</v>
-      </c>
       <c r="F56" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
       <c r="B57">
         <v>160</v>
@@ -2323,27 +5294,27 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="B58" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C58" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D58" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="E58" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="F58" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B59">
         <v>10</v>
@@ -2363,22 +5334,4822 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
+        <v>265</v>
+      </c>
+      <c r="B60" t="s">
+        <v>266</v>
+      </c>
+      <c r="C60" t="s">
+        <v>267</v>
+      </c>
+      <c r="D60" t="s">
+        <v>268</v>
+      </c>
+      <c r="E60" t="s">
+        <v>269</v>
+      </c>
+      <c r="F60" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>270</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B61" t="s">
+        <v>272</v>
+      </c>
+      <c r="C61" t="s">
         <v>271</v>
       </c>
-      <c r="C60" t="s">
-        <v>272</v>
-      </c>
-      <c r="D60" t="s">
+      <c r="D61" t="s">
         <v>273</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E61" t="s">
         <v>274</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F61" t="s">
         <v>273</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>285</v>
+      </c>
+      <c r="B62" t="s">
+        <v>281</v>
+      </c>
+      <c r="C62" t="s">
+        <v>280</v>
+      </c>
+      <c r="D62" t="s">
+        <v>282</v>
+      </c>
+      <c r="E62" t="s">
+        <v>283</v>
+      </c>
+      <c r="F62" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>286</v>
+      </c>
+      <c r="B63">
+        <v>30</v>
+      </c>
+      <c r="C63">
+        <v>18</v>
+      </c>
+      <c r="D63">
+        <v>6</v>
+      </c>
+      <c r="E63">
+        <v>3</v>
+      </c>
+      <c r="F63">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>287</v>
+      </c>
+      <c r="B64" t="s">
+        <v>288</v>
+      </c>
+      <c r="C64" t="s">
+        <v>289</v>
+      </c>
+      <c r="D64" t="s">
+        <v>290</v>
+      </c>
+      <c r="E64" t="s">
+        <v>291</v>
+      </c>
+      <c r="F64" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>292</v>
+      </c>
+      <c r="B65" t="s">
+        <v>293</v>
+      </c>
+      <c r="C65" t="s">
+        <v>294</v>
+      </c>
+      <c r="D65" t="s">
+        <v>295</v>
+      </c>
+      <c r="E65" t="s">
+        <v>296</v>
+      </c>
+      <c r="F65" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>298</v>
+      </c>
+      <c r="B66" t="s">
+        <v>299</v>
+      </c>
+      <c r="C66" t="s">
+        <v>300</v>
+      </c>
+      <c r="D66" t="s">
+        <v>301</v>
+      </c>
+      <c r="E66" t="s">
+        <v>302</v>
+      </c>
+      <c r="F66" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>303</v>
+      </c>
+      <c r="B67" t="s">
+        <v>304</v>
+      </c>
+      <c r="C67" t="s">
+        <v>305</v>
+      </c>
+      <c r="D67" t="s">
+        <v>306</v>
+      </c>
+      <c r="E67" t="s">
+        <v>307</v>
+      </c>
+      <c r="F67" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>308</v>
+      </c>
+      <c r="B68">
+        <v>6</v>
+      </c>
+      <c r="C68">
+        <v>7</v>
+      </c>
+      <c r="D68">
+        <v>8</v>
+      </c>
+      <c r="E68">
+        <v>9</v>
+      </c>
+      <c r="F68">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>309</v>
+      </c>
+      <c r="B69" t="s">
+        <v>310</v>
+      </c>
+      <c r="C69" t="s">
+        <v>311</v>
+      </c>
+      <c r="D69" t="s">
+        <v>312</v>
+      </c>
+      <c r="E69" t="s">
+        <v>313</v>
+      </c>
+      <c r="F69" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>314</v>
+      </c>
+      <c r="B70" t="s">
+        <v>317</v>
+      </c>
+      <c r="C70" t="s">
+        <v>316</v>
+      </c>
+      <c r="D70" t="s">
+        <v>315</v>
+      </c>
+      <c r="E70" t="s">
+        <v>260</v>
+      </c>
+      <c r="F70" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>318</v>
+      </c>
+      <c r="B71" t="s">
+        <v>319</v>
+      </c>
+      <c r="C71" t="s">
+        <v>320</v>
+      </c>
+      <c r="D71" t="s">
+        <v>321</v>
+      </c>
+      <c r="E71" t="s">
+        <v>322</v>
+      </c>
+      <c r="F71" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>323</v>
+      </c>
+      <c r="B72" t="s">
+        <v>324</v>
+      </c>
+      <c r="C72" t="s">
+        <v>325</v>
+      </c>
+      <c r="D72" t="s">
+        <v>326</v>
+      </c>
+      <c r="E72" t="s">
+        <v>327</v>
+      </c>
+      <c r="F72" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>328</v>
+      </c>
+      <c r="B73">
+        <v>2</v>
+      </c>
+      <c r="C73">
+        <v>5</v>
+      </c>
+      <c r="D73">
+        <v>3</v>
+      </c>
+      <c r="E73">
+        <v>4</v>
+      </c>
+      <c r="F73">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>329</v>
+      </c>
+      <c r="B74" t="s">
+        <v>330</v>
+      </c>
+      <c r="C74" t="s">
+        <v>331</v>
+      </c>
+      <c r="D74" t="s">
+        <v>332</v>
+      </c>
+      <c r="E74" t="s">
+        <v>333</v>
+      </c>
+      <c r="F74" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>334</v>
+      </c>
+      <c r="B75" t="s">
+        <v>64</v>
+      </c>
+      <c r="C75" t="s">
+        <v>63</v>
+      </c>
+      <c r="D75" t="s">
+        <v>335</v>
+      </c>
+      <c r="E75" t="s">
+        <v>336</v>
+      </c>
+      <c r="F75" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>337</v>
+      </c>
+      <c r="B76" t="s">
+        <v>338</v>
+      </c>
+      <c r="C76" t="s">
+        <v>339</v>
+      </c>
+      <c r="D76" t="s">
+        <v>340</v>
+      </c>
+      <c r="E76" t="s">
+        <v>341</v>
+      </c>
+      <c r="F76" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>342</v>
+      </c>
+      <c r="B77" t="s">
+        <v>343</v>
+      </c>
+      <c r="C77" t="s">
+        <v>346</v>
+      </c>
+      <c r="D77" t="s">
+        <v>344</v>
+      </c>
+      <c r="E77" t="s">
+        <v>1</v>
+      </c>
+      <c r="F77" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>347</v>
+      </c>
+      <c r="B78" t="s">
+        <v>348</v>
+      </c>
+      <c r="C78" t="s">
+        <v>349</v>
+      </c>
+      <c r="D78" t="s">
+        <v>350</v>
+      </c>
+      <c r="E78" t="s">
+        <v>351</v>
+      </c>
+      <c r="F78" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>352</v>
+      </c>
+      <c r="B79" t="s">
+        <v>353</v>
+      </c>
+      <c r="C79" t="s">
+        <v>354</v>
+      </c>
+      <c r="D79" t="s">
+        <v>355</v>
+      </c>
+      <c r="E79" t="s">
+        <v>356</v>
+      </c>
+      <c r="F79" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>357</v>
+      </c>
+      <c r="B80" t="s">
+        <v>358</v>
+      </c>
+      <c r="C80" t="s">
+        <v>359</v>
+      </c>
+      <c r="D80" t="s">
+        <v>360</v>
+      </c>
+      <c r="E80" t="s">
+        <v>361</v>
+      </c>
+      <c r="F80" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>363</v>
+      </c>
+      <c r="B81" t="s">
+        <v>63</v>
+      </c>
+      <c r="C81" t="s">
+        <v>66</v>
+      </c>
+      <c r="D81" t="s">
+        <v>65</v>
+      </c>
+      <c r="E81" t="s">
+        <v>126</v>
+      </c>
+      <c r="F81" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>364</v>
+      </c>
+      <c r="B82" t="s">
+        <v>365</v>
+      </c>
+      <c r="C82" t="s">
+        <v>366</v>
+      </c>
+      <c r="D82" t="s">
+        <v>367</v>
+      </c>
+      <c r="E82" t="s">
+        <v>368</v>
+      </c>
+      <c r="F82" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>369</v>
+      </c>
+      <c r="B83" t="s">
+        <v>370</v>
+      </c>
+      <c r="C83" t="s">
+        <v>371</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="E83" t="s">
+        <v>373</v>
+      </c>
+      <c r="F83" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>374</v>
+      </c>
+      <c r="B84" t="s">
+        <v>375</v>
+      </c>
+      <c r="C84" t="s">
+        <v>376</v>
+      </c>
+      <c r="D84" t="s">
+        <v>377</v>
+      </c>
+      <c r="E84" t="s">
+        <v>378</v>
+      </c>
+      <c r="F84" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>379</v>
+      </c>
+      <c r="B85" t="s">
+        <v>380</v>
+      </c>
+      <c r="C85" t="s">
+        <v>381</v>
+      </c>
+      <c r="D85" t="s">
+        <v>382</v>
+      </c>
+      <c r="E85" t="s">
+        <v>383</v>
+      </c>
+      <c r="F85" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>384</v>
+      </c>
+      <c r="B86" t="s">
+        <v>385</v>
+      </c>
+      <c r="C86" t="s">
+        <v>386</v>
+      </c>
+      <c r="D86" t="s">
+        <v>387</v>
+      </c>
+      <c r="E86" t="s">
+        <v>388</v>
+      </c>
+      <c r="F86" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>389</v>
+      </c>
+      <c r="B87" t="s">
+        <v>390</v>
+      </c>
+      <c r="C87" t="s">
+        <v>391</v>
+      </c>
+      <c r="D87" t="s">
+        <v>392</v>
+      </c>
+      <c r="E87" t="s">
+        <v>339</v>
+      </c>
+      <c r="F87" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>393</v>
+      </c>
+      <c r="B88" t="s">
+        <v>394</v>
+      </c>
+      <c r="C88" t="s">
+        <v>395</v>
+      </c>
+      <c r="D88" t="s">
+        <v>396</v>
+      </c>
+      <c r="E88" t="s">
+        <v>397</v>
+      </c>
+      <c r="F88" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>407</v>
+      </c>
+      <c r="B89" t="s">
+        <v>398</v>
+      </c>
+      <c r="C89" t="s">
+        <v>399</v>
+      </c>
+      <c r="D89" t="s">
+        <v>400</v>
+      </c>
+      <c r="E89" t="s">
+        <v>401</v>
+      </c>
+      <c r="F89" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>408</v>
+      </c>
+      <c r="B90" t="s">
+        <v>402</v>
+      </c>
+      <c r="C90" t="s">
+        <v>405</v>
+      </c>
+      <c r="D90" t="s">
+        <v>403</v>
+      </c>
+      <c r="E90" t="s">
+        <v>404</v>
+      </c>
+      <c r="F90" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>409</v>
+      </c>
+      <c r="B91" t="s">
+        <v>410</v>
+      </c>
+      <c r="C91" t="s">
+        <v>411</v>
+      </c>
+      <c r="D91" t="s">
+        <v>412</v>
+      </c>
+      <c r="E91" t="s">
+        <v>413</v>
+      </c>
+      <c r="F91" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>414</v>
+      </c>
+      <c r="B92" t="s">
+        <v>415</v>
+      </c>
+      <c r="C92" t="s">
+        <v>416</v>
+      </c>
+      <c r="D92" t="s">
+        <v>7</v>
+      </c>
+      <c r="E92" t="s">
+        <v>417</v>
+      </c>
+      <c r="F92" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>418</v>
+      </c>
+      <c r="B93" t="s">
+        <v>420</v>
+      </c>
+      <c r="C93" t="s">
+        <v>419</v>
+      </c>
+      <c r="D93" t="s">
+        <v>421</v>
+      </c>
+      <c r="E93" t="s">
+        <v>422</v>
+      </c>
+      <c r="F93" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>423</v>
+      </c>
+      <c r="B94" t="s">
+        <v>424</v>
+      </c>
+      <c r="C94" t="s">
+        <v>425</v>
+      </c>
+      <c r="D94" t="s">
+        <v>426</v>
+      </c>
+      <c r="E94" t="s">
+        <v>427</v>
+      </c>
+      <c r="F94" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>428</v>
+      </c>
+      <c r="B95" t="s">
+        <v>429</v>
+      </c>
+      <c r="C95" t="s">
+        <v>430</v>
+      </c>
+      <c r="D95" t="s">
+        <v>138</v>
+      </c>
+      <c r="E95" t="s">
+        <v>431</v>
+      </c>
+      <c r="F95" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>432</v>
+      </c>
+      <c r="B96" t="s">
+        <v>433</v>
+      </c>
+      <c r="C96" t="s">
+        <v>434</v>
+      </c>
+      <c r="D96" t="s">
+        <v>435</v>
+      </c>
+      <c r="E96" t="s">
+        <v>436</v>
+      </c>
+      <c r="F96" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>437</v>
+      </c>
+      <c r="B97" t="s">
+        <v>438</v>
+      </c>
+      <c r="C97" t="s">
+        <v>439</v>
+      </c>
+      <c r="D97" t="s">
+        <v>440</v>
+      </c>
+      <c r="E97" t="s">
+        <v>441</v>
+      </c>
+      <c r="F97" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>442</v>
+      </c>
+      <c r="B98" t="s">
+        <v>443</v>
+      </c>
+      <c r="C98" t="s">
+        <v>444</v>
+      </c>
+      <c r="D98" t="s">
+        <v>445</v>
+      </c>
+      <c r="E98" t="s">
+        <v>446</v>
+      </c>
+      <c r="F98" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>447</v>
+      </c>
+      <c r="B99" t="s">
+        <v>448</v>
+      </c>
+      <c r="C99" t="s">
+        <v>449</v>
+      </c>
+      <c r="D99" t="s">
+        <v>450</v>
+      </c>
+      <c r="E99" t="s">
+        <v>451</v>
+      </c>
+      <c r="F99" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>452</v>
+      </c>
+      <c r="B100" t="s">
+        <v>255</v>
+      </c>
+      <c r="C100" t="s">
+        <v>454</v>
+      </c>
+      <c r="D100" t="s">
+        <v>453</v>
+      </c>
+      <c r="E100" t="s">
+        <v>455</v>
+      </c>
+      <c r="F100" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>456</v>
+      </c>
+      <c r="B101" t="s">
+        <v>457</v>
+      </c>
+      <c r="C101" t="s">
+        <v>458</v>
+      </c>
+      <c r="D101" t="s">
+        <v>459</v>
+      </c>
+      <c r="E101" t="s">
+        <v>460</v>
+      </c>
+      <c r="F101" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>461</v>
+      </c>
+      <c r="B102" t="s">
+        <v>462</v>
+      </c>
+      <c r="C102" t="s">
+        <v>463</v>
+      </c>
+      <c r="D102" t="s">
+        <v>464</v>
+      </c>
+      <c r="E102" t="s">
+        <v>465</v>
+      </c>
+      <c r="F102" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>466</v>
+      </c>
+      <c r="B103">
+        <v>1</v>
+      </c>
+      <c r="C103">
+        <v>10</v>
+      </c>
+      <c r="D103">
+        <v>9</v>
+      </c>
+      <c r="E103">
+        <v>3</v>
+      </c>
+      <c r="F103">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>467</v>
+      </c>
+      <c r="B104" t="s">
+        <v>468</v>
+      </c>
+      <c r="C104" t="s">
+        <v>99</v>
+      </c>
+      <c r="D104" t="s">
+        <v>290</v>
+      </c>
+      <c r="E104" t="s">
+        <v>469</v>
+      </c>
+      <c r="F104" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>470</v>
+      </c>
+      <c r="B105" t="s">
+        <v>471</v>
+      </c>
+      <c r="C105" t="s">
+        <v>472</v>
+      </c>
+      <c r="D105" t="s">
+        <v>473</v>
+      </c>
+      <c r="E105" t="s">
+        <v>474</v>
+      </c>
+      <c r="F105" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>475</v>
+      </c>
+      <c r="B106" t="s">
+        <v>476</v>
+      </c>
+      <c r="C106" t="s">
+        <v>477</v>
+      </c>
+      <c r="D106" t="s">
+        <v>478</v>
+      </c>
+      <c r="E106" t="s">
+        <v>479</v>
+      </c>
+      <c r="F106" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>480</v>
+      </c>
+      <c r="B107">
+        <v>6</v>
+      </c>
+      <c r="C107">
+        <v>8</v>
+      </c>
+      <c r="D107">
+        <v>7</v>
+      </c>
+      <c r="E107">
+        <v>5</v>
+      </c>
+      <c r="F107">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>481</v>
+      </c>
+      <c r="B108" t="s">
+        <v>482</v>
+      </c>
+      <c r="C108" t="s">
+        <v>483</v>
+      </c>
+      <c r="D108" t="s">
+        <v>484</v>
+      </c>
+      <c r="E108" t="s">
+        <v>485</v>
+      </c>
+      <c r="F108" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>486</v>
+      </c>
+      <c r="B109" t="s">
+        <v>65</v>
+      </c>
+      <c r="C109" t="s">
+        <v>66</v>
+      </c>
+      <c r="D109" t="s">
+        <v>64</v>
+      </c>
+      <c r="E109" t="s">
+        <v>487</v>
+      </c>
+      <c r="F109" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>488</v>
+      </c>
+      <c r="B110" t="s">
+        <v>489</v>
+      </c>
+      <c r="C110" t="s">
+        <v>490</v>
+      </c>
+      <c r="D110" t="s">
+        <v>491</v>
+      </c>
+      <c r="E110" t="s">
+        <v>492</v>
+      </c>
+      <c r="F110" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>493</v>
+      </c>
+      <c r="B111" t="s">
+        <v>494</v>
+      </c>
+      <c r="C111" t="s">
+        <v>495</v>
+      </c>
+      <c r="D111" t="s">
+        <v>496</v>
+      </c>
+      <c r="E111" t="s">
+        <v>497</v>
+      </c>
+      <c r="F111" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>498</v>
+      </c>
+      <c r="B112">
+        <v>10</v>
+      </c>
+      <c r="C112">
+        <v>100</v>
+      </c>
+      <c r="D112">
+        <v>1000</v>
+      </c>
+      <c r="E112">
+        <v>1</v>
+      </c>
+      <c r="F112">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>499</v>
+      </c>
+      <c r="B113" t="s">
+        <v>500</v>
+      </c>
+      <c r="C113" t="s">
+        <v>501</v>
+      </c>
+      <c r="D113" t="s">
+        <v>502</v>
+      </c>
+      <c r="E113" t="s">
+        <v>503</v>
+      </c>
+      <c r="F113" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>504</v>
+      </c>
+      <c r="B114" t="s">
+        <v>505</v>
+      </c>
+      <c r="C114" t="s">
+        <v>506</v>
+      </c>
+      <c r="D114" t="s">
+        <v>507</v>
+      </c>
+      <c r="E114" t="s">
+        <v>508</v>
+      </c>
+      <c r="F114" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>509</v>
+      </c>
+      <c r="B115">
+        <v>500</v>
+      </c>
+      <c r="C115">
+        <v>100</v>
+      </c>
+      <c r="D115">
+        <v>50</v>
+      </c>
+      <c r="E115">
+        <v>10</v>
+      </c>
+      <c r="F115">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>510</v>
+      </c>
+      <c r="B116" t="s">
+        <v>511</v>
+      </c>
+      <c r="C116" t="s">
+        <v>512</v>
+      </c>
+      <c r="D116" t="s">
+        <v>513</v>
+      </c>
+      <c r="E116" t="s">
+        <v>514</v>
+      </c>
+      <c r="F116" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>515</v>
+      </c>
+      <c r="B117" t="s">
+        <v>516</v>
+      </c>
+      <c r="C117" t="s">
+        <v>517</v>
+      </c>
+      <c r="D117" t="s">
+        <v>518</v>
+      </c>
+      <c r="E117" t="s">
+        <v>519</v>
+      </c>
+      <c r="F117" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>520</v>
+      </c>
+      <c r="B118" t="s">
+        <v>521</v>
+      </c>
+      <c r="C118" t="s">
+        <v>522</v>
+      </c>
+      <c r="D118" t="s">
+        <v>523</v>
+      </c>
+      <c r="E118" t="s">
+        <v>524</v>
+      </c>
+      <c r="F118" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>525</v>
+      </c>
+      <c r="B119">
+        <v>2002</v>
+      </c>
+      <c r="C119">
+        <v>2000</v>
+      </c>
+      <c r="D119">
+        <v>1998</v>
+      </c>
+      <c r="E119">
+        <v>1980</v>
+      </c>
+      <c r="F119">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>526</v>
+      </c>
+      <c r="B120" t="s">
+        <v>527</v>
+      </c>
+      <c r="C120" t="s">
+        <v>528</v>
+      </c>
+      <c r="D120" t="s">
+        <v>529</v>
+      </c>
+      <c r="E120" t="s">
+        <v>530</v>
+      </c>
+      <c r="F120" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>531</v>
+      </c>
+      <c r="B121">
+        <v>10000</v>
+      </c>
+      <c r="C121">
+        <v>1000</v>
+      </c>
+      <c r="D121">
+        <v>100</v>
+      </c>
+      <c r="E121">
+        <v>100000</v>
+      </c>
+      <c r="F121">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>532</v>
+      </c>
+      <c r="B122" t="s">
+        <v>533</v>
+      </c>
+      <c r="C122" t="s">
+        <v>534</v>
+      </c>
+      <c r="D122" t="s">
+        <v>535</v>
+      </c>
+      <c r="E122" t="s">
+        <v>536</v>
+      </c>
+      <c r="F122" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>537</v>
+      </c>
+      <c r="B123" t="s">
+        <v>538</v>
+      </c>
+      <c r="C123" t="s">
+        <v>539</v>
+      </c>
+      <c r="D123" t="s">
+        <v>540</v>
+      </c>
+      <c r="E123" t="s">
+        <v>541</v>
+      </c>
+      <c r="F123" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>542</v>
+      </c>
+      <c r="B124" t="s">
+        <v>543</v>
+      </c>
+      <c r="C124" t="s">
+        <v>544</v>
+      </c>
+      <c r="D124" t="s">
+        <v>545</v>
+      </c>
+      <c r="E124" t="s">
+        <v>546</v>
+      </c>
+      <c r="F124" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>547</v>
+      </c>
+      <c r="B125">
+        <v>10</v>
+      </c>
+      <c r="C125">
+        <v>13</v>
+      </c>
+      <c r="D125">
+        <v>12</v>
+      </c>
+      <c r="E125">
+        <v>9</v>
+      </c>
+      <c r="F125">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>548</v>
+      </c>
+      <c r="B126" t="s">
+        <v>549</v>
+      </c>
+      <c r="C126" t="s">
+        <v>550</v>
+      </c>
+      <c r="D126" t="s">
+        <v>551</v>
+      </c>
+      <c r="E126" t="s">
+        <v>552</v>
+      </c>
+      <c r="F126" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>553</v>
+      </c>
+      <c r="B127" t="s">
+        <v>554</v>
+      </c>
+      <c r="C127" t="s">
+        <v>555</v>
+      </c>
+      <c r="D127" t="s">
+        <v>556</v>
+      </c>
+      <c r="E127" t="s">
+        <v>557</v>
+      </c>
+      <c r="F127" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>558</v>
+      </c>
+      <c r="B128" t="s">
+        <v>559</v>
+      </c>
+      <c r="C128" t="s">
+        <v>560</v>
+      </c>
+      <c r="D128" t="s">
+        <v>561</v>
+      </c>
+      <c r="E128" t="s">
+        <v>562</v>
+      </c>
+      <c r="F128" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>563</v>
+      </c>
+      <c r="B129">
+        <v>30</v>
+      </c>
+      <c r="C129">
+        <v>20</v>
+      </c>
+      <c r="D129">
+        <v>11</v>
+      </c>
+      <c r="E129">
+        <v>18</v>
+      </c>
+      <c r="F129">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>564</v>
+      </c>
+      <c r="B130" t="s">
+        <v>565</v>
+      </c>
+      <c r="C130" t="s">
+        <v>566</v>
+      </c>
+      <c r="D130" t="s">
+        <v>567</v>
+      </c>
+      <c r="E130" t="s">
+        <v>568</v>
+      </c>
+      <c r="F130" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>569</v>
+      </c>
+      <c r="B131" t="s">
+        <v>570</v>
+      </c>
+      <c r="C131" t="s">
+        <v>571</v>
+      </c>
+      <c r="D131" t="s">
+        <v>572</v>
+      </c>
+      <c r="E131" t="s">
+        <v>573</v>
+      </c>
+      <c r="F131" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>574</v>
+      </c>
+      <c r="B132" t="s">
+        <v>575</v>
+      </c>
+      <c r="C132" t="s">
+        <v>576</v>
+      </c>
+      <c r="D132" t="s">
+        <v>577</v>
+      </c>
+      <c r="E132" t="s">
+        <v>578</v>
+      </c>
+      <c r="F132" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>579</v>
+      </c>
+      <c r="B133">
+        <v>0</v>
+      </c>
+      <c r="C133">
+        <v>5</v>
+      </c>
+      <c r="D133">
+        <v>1</v>
+      </c>
+      <c r="E133">
+        <v>7</v>
+      </c>
+      <c r="F133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>580</v>
+      </c>
+      <c r="B134" t="s">
+        <v>581</v>
+      </c>
+      <c r="C134" t="s">
+        <v>582</v>
+      </c>
+      <c r="D134" t="s">
+        <v>583</v>
+      </c>
+      <c r="E134" t="s">
+        <v>584</v>
+      </c>
+      <c r="F134" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>585</v>
+      </c>
+      <c r="B135" t="s">
+        <v>586</v>
+      </c>
+      <c r="C135" t="s">
+        <v>587</v>
+      </c>
+      <c r="D135" t="s">
+        <v>588</v>
+      </c>
+      <c r="E135" t="s">
+        <v>589</v>
+      </c>
+      <c r="F135" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>590</v>
+      </c>
+      <c r="B136" t="s">
+        <v>591</v>
+      </c>
+      <c r="C136" t="s">
+        <v>592</v>
+      </c>
+      <c r="D136" t="s">
+        <v>593</v>
+      </c>
+      <c r="E136" t="s">
+        <v>594</v>
+      </c>
+      <c r="F136" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>595</v>
+      </c>
+      <c r="B137" t="s">
+        <v>596</v>
+      </c>
+      <c r="C137" t="s">
+        <v>597</v>
+      </c>
+      <c r="D137" t="s">
+        <v>598</v>
+      </c>
+      <c r="E137" t="s">
+        <v>599</v>
+      </c>
+      <c r="F137" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>600</v>
+      </c>
+      <c r="B138" t="s">
+        <v>601</v>
+      </c>
+      <c r="C138" t="s">
+        <v>425</v>
+      </c>
+      <c r="D138" t="s">
+        <v>602</v>
+      </c>
+      <c r="E138" t="s">
+        <v>603</v>
+      </c>
+      <c r="F138" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>604</v>
+      </c>
+      <c r="B139" t="s">
+        <v>605</v>
+      </c>
+      <c r="C139" t="s">
+        <v>606</v>
+      </c>
+      <c r="D139" t="s">
+        <v>607</v>
+      </c>
+      <c r="E139" t="s">
+        <v>608</v>
+      </c>
+      <c r="F139" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>609</v>
+      </c>
+      <c r="B140">
+        <v>16</v>
+      </c>
+      <c r="C140">
+        <v>12</v>
+      </c>
+      <c r="D140">
+        <v>8</v>
+      </c>
+      <c r="E140">
+        <v>1</v>
+      </c>
+      <c r="F140">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>610</v>
+      </c>
+      <c r="B141" t="s">
+        <v>611</v>
+      </c>
+      <c r="C141" t="s">
+        <v>485</v>
+      </c>
+      <c r="D141" t="s">
+        <v>612</v>
+      </c>
+      <c r="E141" t="s">
+        <v>613</v>
+      </c>
+      <c r="F141" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>614</v>
+      </c>
+      <c r="B142">
+        <v>10</v>
+      </c>
+      <c r="C142">
+        <v>100</v>
+      </c>
+      <c r="D142">
+        <v>1</v>
+      </c>
+      <c r="E142">
+        <v>1000</v>
+      </c>
+      <c r="F142">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>615</v>
+      </c>
+      <c r="B143" t="s">
+        <v>616</v>
+      </c>
+      <c r="C143" t="s">
+        <v>617</v>
+      </c>
+      <c r="D143" t="s">
+        <v>618</v>
+      </c>
+      <c r="E143" t="s">
+        <v>619</v>
+      </c>
+      <c r="F143" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>620</v>
+      </c>
+      <c r="B144" t="s">
+        <v>621</v>
+      </c>
+      <c r="C144" t="s">
+        <v>622</v>
+      </c>
+      <c r="D144" t="s">
+        <v>623</v>
+      </c>
+      <c r="E144" t="s">
+        <v>624</v>
+      </c>
+      <c r="F144" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>625</v>
+      </c>
+      <c r="B145" t="s">
+        <v>626</v>
+      </c>
+      <c r="C145" t="s">
+        <v>627</v>
+      </c>
+      <c r="D145" t="s">
+        <v>628</v>
+      </c>
+      <c r="E145" t="s">
+        <v>629</v>
+      </c>
+      <c r="F145" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>630</v>
+      </c>
+      <c r="B146" t="s">
+        <v>631</v>
+      </c>
+      <c r="C146" t="s">
+        <v>632</v>
+      </c>
+      <c r="D146" t="s">
+        <v>633</v>
+      </c>
+      <c r="E146" t="s">
+        <v>634</v>
+      </c>
+      <c r="F146" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>635</v>
+      </c>
+      <c r="B147" t="s">
+        <v>636</v>
+      </c>
+      <c r="C147" t="s">
+        <v>637</v>
+      </c>
+      <c r="D147" t="s">
+        <v>638</v>
+      </c>
+      <c r="E147" t="s">
+        <v>639</v>
+      </c>
+      <c r="F147" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>640</v>
+      </c>
+      <c r="B148" t="s">
+        <v>505</v>
+      </c>
+      <c r="C148" t="s">
+        <v>641</v>
+      </c>
+      <c r="D148" t="s">
+        <v>642</v>
+      </c>
+      <c r="E148" t="s">
+        <v>643</v>
+      </c>
+      <c r="F148" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>644</v>
+      </c>
+      <c r="B149" t="s">
+        <v>645</v>
+      </c>
+      <c r="C149" t="s">
+        <v>646</v>
+      </c>
+      <c r="D149" t="s">
+        <v>647</v>
+      </c>
+      <c r="E149" t="s">
+        <v>648</v>
+      </c>
+      <c r="F149" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>649</v>
+      </c>
+      <c r="B150" t="s">
+        <v>650</v>
+      </c>
+      <c r="C150" t="s">
+        <v>651</v>
+      </c>
+      <c r="D150" t="s">
+        <v>652</v>
+      </c>
+      <c r="E150" t="s">
+        <v>653</v>
+      </c>
+      <c r="F150" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>655</v>
+      </c>
+      <c r="B151" t="s">
+        <v>656</v>
+      </c>
+      <c r="C151" t="s">
+        <v>657</v>
+      </c>
+      <c r="D151" t="s">
+        <v>658</v>
+      </c>
+      <c r="E151" t="s">
+        <v>659</v>
+      </c>
+      <c r="F151" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>660</v>
+      </c>
+      <c r="B152" t="s">
+        <v>661</v>
+      </c>
+      <c r="C152" t="s">
+        <v>662</v>
+      </c>
+      <c r="D152" t="s">
+        <v>663</v>
+      </c>
+      <c r="E152" t="s">
+        <v>664</v>
+      </c>
+      <c r="F152" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>665</v>
+      </c>
+      <c r="B153" t="s">
+        <v>666</v>
+      </c>
+      <c r="C153" t="s">
+        <v>667</v>
+      </c>
+      <c r="D153" t="s">
+        <v>668</v>
+      </c>
+      <c r="E153" t="s">
+        <v>669</v>
+      </c>
+      <c r="F153" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>670</v>
+      </c>
+      <c r="B154" t="s">
+        <v>671</v>
+      </c>
+      <c r="C154" t="s">
+        <v>672</v>
+      </c>
+      <c r="D154" t="s">
+        <v>673</v>
+      </c>
+      <c r="E154" t="s">
+        <v>674</v>
+      </c>
+      <c r="F154" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>675</v>
+      </c>
+      <c r="B155" t="s">
+        <v>676</v>
+      </c>
+      <c r="C155" t="s">
+        <v>677</v>
+      </c>
+      <c r="D155" t="s">
+        <v>678</v>
+      </c>
+      <c r="E155" t="s">
+        <v>679</v>
+      </c>
+      <c r="F155" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>680</v>
+      </c>
+      <c r="B156" t="s">
+        <v>681</v>
+      </c>
+      <c r="C156" t="s">
+        <v>682</v>
+      </c>
+      <c r="D156" t="s">
+        <v>683</v>
+      </c>
+      <c r="E156" t="s">
+        <v>684</v>
+      </c>
+      <c r="F156" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>685</v>
+      </c>
+      <c r="B157" t="s">
+        <v>686</v>
+      </c>
+      <c r="C157" t="s">
+        <v>687</v>
+      </c>
+      <c r="D157" t="s">
+        <v>688</v>
+      </c>
+      <c r="E157" t="s">
+        <v>689</v>
+      </c>
+      <c r="F157" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>690</v>
+      </c>
+      <c r="B158" t="s">
+        <v>691</v>
+      </c>
+      <c r="C158" t="s">
+        <v>692</v>
+      </c>
+      <c r="D158" t="s">
+        <v>693</v>
+      </c>
+      <c r="E158" t="s">
+        <v>694</v>
+      </c>
+      <c r="F158" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>695</v>
+      </c>
+      <c r="B159" t="s">
+        <v>696</v>
+      </c>
+      <c r="C159" t="s">
+        <v>697</v>
+      </c>
+      <c r="D159" t="s">
+        <v>698</v>
+      </c>
+      <c r="E159" t="s">
+        <v>699</v>
+      </c>
+      <c r="F159" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>700</v>
+      </c>
+      <c r="B160" t="s">
+        <v>701</v>
+      </c>
+      <c r="C160" t="s">
+        <v>702</v>
+      </c>
+      <c r="D160" t="s">
+        <v>703</v>
+      </c>
+      <c r="E160" t="s">
+        <v>704</v>
+      </c>
+      <c r="F160" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>705</v>
+      </c>
+      <c r="B161" t="s">
+        <v>706</v>
+      </c>
+      <c r="C161" t="s">
+        <v>707</v>
+      </c>
+      <c r="D161" t="s">
+        <v>708</v>
+      </c>
+      <c r="E161" t="s">
+        <v>709</v>
+      </c>
+      <c r="F161" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>711</v>
+      </c>
+      <c r="B162" t="s">
+        <v>712</v>
+      </c>
+      <c r="C162" t="s">
+        <v>707</v>
+      </c>
+      <c r="D162" t="s">
+        <v>708</v>
+      </c>
+      <c r="E162" t="s">
+        <v>709</v>
+      </c>
+      <c r="F162" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>713</v>
+      </c>
+      <c r="B163" t="s">
+        <v>714</v>
+      </c>
+      <c r="C163" t="s">
+        <v>715</v>
+      </c>
+      <c r="D163" t="s">
+        <v>716</v>
+      </c>
+      <c r="E163" t="s">
+        <v>717</v>
+      </c>
+      <c r="F163" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>718</v>
+      </c>
+      <c r="B164" t="s">
+        <v>714</v>
+      </c>
+      <c r="C164" t="s">
+        <v>715</v>
+      </c>
+      <c r="D164" t="s">
+        <v>716</v>
+      </c>
+      <c r="E164" t="s">
+        <v>717</v>
+      </c>
+      <c r="F164" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>719</v>
+      </c>
+      <c r="B165" t="s">
+        <v>720</v>
+      </c>
+      <c r="C165" t="s">
+        <v>721</v>
+      </c>
+      <c r="D165" t="s">
+        <v>722</v>
+      </c>
+      <c r="E165" t="s">
+        <v>723</v>
+      </c>
+      <c r="F165" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>724</v>
+      </c>
+      <c r="B166" t="s">
+        <v>725</v>
+      </c>
+      <c r="C166" t="s">
+        <v>726</v>
+      </c>
+      <c r="D166" t="s">
+        <v>727</v>
+      </c>
+      <c r="E166" t="s">
+        <v>728</v>
+      </c>
+      <c r="F166" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>729</v>
+      </c>
+      <c r="B167" t="s">
+        <v>730</v>
+      </c>
+      <c r="C167" t="s">
+        <v>731</v>
+      </c>
+      <c r="D167" t="s">
+        <v>732</v>
+      </c>
+      <c r="E167" t="s">
+        <v>733</v>
+      </c>
+      <c r="F167" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>734</v>
+      </c>
+      <c r="B168" t="s">
+        <v>725</v>
+      </c>
+      <c r="C168" t="s">
+        <v>726</v>
+      </c>
+      <c r="D168" t="s">
+        <v>727</v>
+      </c>
+      <c r="E168" t="s">
+        <v>728</v>
+      </c>
+      <c r="F168" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>735</v>
+      </c>
+      <c r="B169" t="s">
+        <v>736</v>
+      </c>
+      <c r="C169" t="s">
+        <v>737</v>
+      </c>
+      <c r="D169" t="s">
+        <v>505</v>
+      </c>
+      <c r="E169" t="s">
+        <v>738</v>
+      </c>
+      <c r="F169" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>739</v>
+      </c>
+      <c r="B170" t="s">
+        <v>740</v>
+      </c>
+      <c r="C170" t="s">
+        <v>741</v>
+      </c>
+      <c r="D170" t="s">
+        <v>742</v>
+      </c>
+      <c r="E170" t="s">
+        <v>743</v>
+      </c>
+      <c r="F170" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>744</v>
+      </c>
+      <c r="B171">
+        <v>30</v>
+      </c>
+      <c r="C171">
+        <v>50</v>
+      </c>
+      <c r="D171">
+        <v>10</v>
+      </c>
+      <c r="E171">
+        <v>21</v>
+      </c>
+      <c r="F171">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>745</v>
+      </c>
+      <c r="B172" t="s">
+        <v>746</v>
+      </c>
+      <c r="C172" t="s">
+        <v>747</v>
+      </c>
+      <c r="D172" t="s">
+        <v>748</v>
+      </c>
+      <c r="E172" t="s">
+        <v>749</v>
+      </c>
+      <c r="F172" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>751</v>
+      </c>
+      <c r="B173" t="s">
+        <v>752</v>
+      </c>
+      <c r="C173" t="s">
+        <v>753</v>
+      </c>
+      <c r="D173" t="s">
+        <v>754</v>
+      </c>
+      <c r="E173" t="s">
+        <v>755</v>
+      </c>
+      <c r="F173" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>756</v>
+      </c>
+      <c r="B174" t="s">
+        <v>757</v>
+      </c>
+      <c r="C174" t="s">
+        <v>758</v>
+      </c>
+      <c r="D174" t="s">
+        <v>759</v>
+      </c>
+      <c r="E174" t="s">
+        <v>760</v>
+      </c>
+      <c r="F174" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>761</v>
+      </c>
+      <c r="B175" t="s">
+        <v>762</v>
+      </c>
+      <c r="C175" t="s">
+        <v>763</v>
+      </c>
+      <c r="D175" t="s">
+        <v>764</v>
+      </c>
+      <c r="E175" t="s">
+        <v>765</v>
+      </c>
+      <c r="F175" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>766</v>
+      </c>
+      <c r="B176" t="s">
+        <v>767</v>
+      </c>
+      <c r="C176" t="s">
+        <v>768</v>
+      </c>
+      <c r="D176" t="s">
+        <v>769</v>
+      </c>
+      <c r="E176" t="s">
+        <v>54</v>
+      </c>
+      <c r="F176" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>770</v>
+      </c>
+      <c r="B177" t="s">
+        <v>771</v>
+      </c>
+      <c r="C177" t="s">
+        <v>772</v>
+      </c>
+      <c r="D177" t="s">
+        <v>773</v>
+      </c>
+      <c r="E177" t="s">
+        <v>774</v>
+      </c>
+      <c r="F177" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>775</v>
+      </c>
+      <c r="B178" t="s">
+        <v>776</v>
+      </c>
+      <c r="C178" t="s">
+        <v>148</v>
+      </c>
+      <c r="D178" t="s">
+        <v>777</v>
+      </c>
+      <c r="E178" t="s">
+        <v>778</v>
+      </c>
+      <c r="F178" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>779</v>
+      </c>
+      <c r="B179" t="s">
+        <v>343</v>
+      </c>
+      <c r="C179" t="s">
+        <v>780</v>
+      </c>
+      <c r="D179" t="s">
+        <v>781</v>
+      </c>
+      <c r="E179" t="s">
+        <v>782</v>
+      </c>
+      <c r="F179" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>783</v>
+      </c>
+      <c r="B180" t="s">
+        <v>784</v>
+      </c>
+      <c r="C180" t="s">
+        <v>785</v>
+      </c>
+      <c r="D180" t="s">
+        <v>786</v>
+      </c>
+      <c r="E180" t="s">
+        <v>787</v>
+      </c>
+      <c r="F180" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>788</v>
+      </c>
+      <c r="B181" t="s">
+        <v>789</v>
+      </c>
+      <c r="C181" t="s">
+        <v>790</v>
+      </c>
+      <c r="D181" t="s">
+        <v>791</v>
+      </c>
+      <c r="E181" t="s">
+        <v>792</v>
+      </c>
+      <c r="F181" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>793</v>
+      </c>
+      <c r="B182" t="s">
+        <v>794</v>
+      </c>
+      <c r="C182" t="s">
+        <v>795</v>
+      </c>
+      <c r="D182" t="s">
+        <v>796</v>
+      </c>
+      <c r="E182" t="s">
+        <v>797</v>
+      </c>
+      <c r="F182" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>798</v>
+      </c>
+      <c r="B183" t="s">
+        <v>794</v>
+      </c>
+      <c r="C183" t="s">
+        <v>794</v>
+      </c>
+      <c r="D183" t="s">
+        <v>794</v>
+      </c>
+      <c r="E183" t="s">
+        <v>799</v>
+      </c>
+      <c r="F183" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>800</v>
+      </c>
+      <c r="B184" t="s">
+        <v>801</v>
+      </c>
+      <c r="C184" t="s">
+        <v>802</v>
+      </c>
+      <c r="D184" t="s">
+        <v>803</v>
+      </c>
+      <c r="E184" t="s">
+        <v>804</v>
+      </c>
+      <c r="F184" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>805</v>
+      </c>
+      <c r="B185" t="s">
+        <v>806</v>
+      </c>
+      <c r="C185" t="s">
+        <v>807</v>
+      </c>
+      <c r="D185" t="s">
+        <v>808</v>
+      </c>
+      <c r="E185" t="s">
+        <v>809</v>
+      </c>
+      <c r="F185" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>810</v>
+      </c>
+      <c r="B186" t="s">
+        <v>811</v>
+      </c>
+      <c r="C186" t="s">
+        <v>812</v>
+      </c>
+      <c r="D186" t="s">
+        <v>813</v>
+      </c>
+      <c r="E186" t="s">
+        <v>814</v>
+      </c>
+      <c r="F186" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>815</v>
+      </c>
+      <c r="B187" t="s">
+        <v>816</v>
+      </c>
+      <c r="C187" t="s">
+        <v>817</v>
+      </c>
+      <c r="D187" t="s">
+        <v>818</v>
+      </c>
+      <c r="E187" t="s">
+        <v>819</v>
+      </c>
+      <c r="F187" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>820</v>
+      </c>
+      <c r="B188">
+        <v>1</v>
+      </c>
+      <c r="C188">
+        <v>6</v>
+      </c>
+      <c r="D188">
+        <v>4</v>
+      </c>
+      <c r="E188">
+        <v>5</v>
+      </c>
+      <c r="F188">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>821</v>
+      </c>
+      <c r="B189" t="s">
+        <v>822</v>
+      </c>
+      <c r="C189" t="s">
+        <v>823</v>
+      </c>
+      <c r="D189" t="s">
+        <v>824</v>
+      </c>
+      <c r="E189" t="s">
+        <v>825</v>
+      </c>
+      <c r="F189" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>826</v>
+      </c>
+      <c r="B190" t="s">
+        <v>827</v>
+      </c>
+      <c r="C190" t="s">
+        <v>828</v>
+      </c>
+      <c r="D190" t="s">
+        <v>829</v>
+      </c>
+      <c r="E190" t="s">
+        <v>830</v>
+      </c>
+      <c r="F190" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>831</v>
+      </c>
+      <c r="B191" t="s">
+        <v>832</v>
+      </c>
+      <c r="C191" t="s">
+        <v>833</v>
+      </c>
+      <c r="D191" t="s">
+        <v>834</v>
+      </c>
+      <c r="E191" t="s">
+        <v>727</v>
+      </c>
+      <c r="F191" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>835</v>
+      </c>
+      <c r="B192" t="s">
+        <v>836</v>
+      </c>
+      <c r="C192" t="s">
+        <v>837</v>
+      </c>
+      <c r="D192" t="s">
+        <v>838</v>
+      </c>
+      <c r="E192" t="s">
+        <v>839</v>
+      </c>
+      <c r="F192" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>840</v>
+      </c>
+      <c r="B193">
+        <v>1</v>
+      </c>
+      <c r="C193">
+        <v>2</v>
+      </c>
+      <c r="D193">
+        <v>3</v>
+      </c>
+      <c r="E193">
+        <v>4</v>
+      </c>
+      <c r="F193">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>841</v>
+      </c>
+      <c r="B194" t="s">
+        <v>842</v>
+      </c>
+      <c r="C194" t="s">
+        <v>843</v>
+      </c>
+      <c r="D194" t="s">
+        <v>844</v>
+      </c>
+      <c r="E194" t="s">
+        <v>845</v>
+      </c>
+      <c r="F194" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>846</v>
+      </c>
+      <c r="B195" t="s">
+        <v>155</v>
+      </c>
+      <c r="C195" t="s">
+        <v>847</v>
+      </c>
+      <c r="D195" t="s">
+        <v>154</v>
+      </c>
+      <c r="E195" t="s">
+        <v>153</v>
+      </c>
+      <c r="F195" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>848</v>
+      </c>
+      <c r="B196" t="s">
+        <v>782</v>
+      </c>
+      <c r="C196" t="s">
+        <v>849</v>
+      </c>
+      <c r="D196" t="s">
+        <v>850</v>
+      </c>
+      <c r="E196" t="s">
+        <v>781</v>
+      </c>
+      <c r="F196" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>851</v>
+      </c>
+      <c r="B197" t="s">
+        <v>852</v>
+      </c>
+      <c r="C197" t="s">
+        <v>853</v>
+      </c>
+      <c r="D197" t="s">
+        <v>344</v>
+      </c>
+      <c r="E197" t="s">
+        <v>854</v>
+      </c>
+      <c r="F197" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>855</v>
+      </c>
+      <c r="B198" t="s">
+        <v>856</v>
+      </c>
+      <c r="C198" t="s">
+        <v>857</v>
+      </c>
+      <c r="D198" t="s">
+        <v>858</v>
+      </c>
+      <c r="E198" t="s">
+        <v>859</v>
+      </c>
+      <c r="F198" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>860</v>
+      </c>
+      <c r="B199" t="s">
+        <v>861</v>
+      </c>
+      <c r="C199" t="s">
+        <v>305</v>
+      </c>
+      <c r="D199" t="s">
+        <v>862</v>
+      </c>
+      <c r="E199" t="s">
+        <v>863</v>
+      </c>
+      <c r="F199" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>864</v>
+      </c>
+      <c r="B200" t="s">
+        <v>865</v>
+      </c>
+      <c r="C200" t="s">
+        <v>776</v>
+      </c>
+      <c r="D200" t="s">
+        <v>866</v>
+      </c>
+      <c r="E200" t="s">
+        <v>867</v>
+      </c>
+      <c r="F200" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>868</v>
+      </c>
+      <c r="B201" t="s">
+        <v>869</v>
+      </c>
+      <c r="C201" t="s">
+        <v>870</v>
+      </c>
+      <c r="D201" t="s">
+        <v>871</v>
+      </c>
+      <c r="E201" t="s">
+        <v>872</v>
+      </c>
+      <c r="F201" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>873</v>
+      </c>
+      <c r="B202" t="s">
+        <v>366</v>
+      </c>
+      <c r="C202" t="s">
+        <v>365</v>
+      </c>
+      <c r="D202" t="s">
+        <v>874</v>
+      </c>
+      <c r="E202" t="s">
+        <v>875</v>
+      </c>
+      <c r="F202" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>876</v>
+      </c>
+      <c r="B203" t="s">
+        <v>343</v>
+      </c>
+      <c r="C203" t="s">
+        <v>344</v>
+      </c>
+      <c r="D203" t="s">
+        <v>853</v>
+      </c>
+      <c r="E203" t="s">
+        <v>877</v>
+      </c>
+      <c r="F203" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>878</v>
+      </c>
+      <c r="B204" t="s">
+        <v>879</v>
+      </c>
+      <c r="C204" t="s">
+        <v>880</v>
+      </c>
+      <c r="D204" t="s">
+        <v>881</v>
+      </c>
+      <c r="E204" t="s">
+        <v>882</v>
+      </c>
+      <c r="F204" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>883</v>
+      </c>
+      <c r="B205" t="s">
+        <v>884</v>
+      </c>
+      <c r="C205" t="s">
+        <v>885</v>
+      </c>
+      <c r="D205" t="s">
+        <v>886</v>
+      </c>
+      <c r="E205" t="s">
+        <v>887</v>
+      </c>
+      <c r="F205" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>888</v>
+      </c>
+      <c r="B206" t="s">
+        <v>889</v>
+      </c>
+      <c r="C206" t="s">
+        <v>890</v>
+      </c>
+      <c r="D206" t="s">
+        <v>891</v>
+      </c>
+      <c r="E206" t="s">
+        <v>892</v>
+      </c>
+      <c r="F206" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>893</v>
+      </c>
+      <c r="B207" t="s">
+        <v>64</v>
+      </c>
+      <c r="C207" t="s">
+        <v>65</v>
+      </c>
+      <c r="D207" t="s">
+        <v>336</v>
+      </c>
+      <c r="E207" t="s">
+        <v>894</v>
+      </c>
+      <c r="F207" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>895</v>
+      </c>
+      <c r="B208" t="s">
+        <v>896</v>
+      </c>
+      <c r="C208" t="s">
+        <v>897</v>
+      </c>
+      <c r="D208" t="s">
+        <v>898</v>
+      </c>
+      <c r="E208" t="s">
+        <v>64</v>
+      </c>
+      <c r="F208" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>899</v>
+      </c>
+      <c r="B209" t="s">
+        <v>900</v>
+      </c>
+      <c r="C209" t="s">
+        <v>901</v>
+      </c>
+      <c r="D209" t="s">
+        <v>902</v>
+      </c>
+      <c r="E209" t="s">
+        <v>903</v>
+      </c>
+      <c r="F209" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>904</v>
+      </c>
+      <c r="B210" t="s">
+        <v>905</v>
+      </c>
+      <c r="C210" t="s">
+        <v>906</v>
+      </c>
+      <c r="D210" t="s">
+        <v>907</v>
+      </c>
+      <c r="E210" t="s">
+        <v>908</v>
+      </c>
+      <c r="F210" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>909</v>
+      </c>
+      <c r="B211" t="s">
+        <v>910</v>
+      </c>
+      <c r="C211" t="s">
+        <v>911</v>
+      </c>
+      <c r="D211" t="s">
+        <v>912</v>
+      </c>
+      <c r="E211" t="s">
+        <v>913</v>
+      </c>
+      <c r="F211" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>914</v>
+      </c>
+      <c r="B212" t="s">
+        <v>915</v>
+      </c>
+      <c r="C212" t="s">
+        <v>916</v>
+      </c>
+      <c r="D212" t="s">
+        <v>917</v>
+      </c>
+      <c r="E212" t="s">
+        <v>918</v>
+      </c>
+      <c r="F212" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>919</v>
+      </c>
+      <c r="B213" t="s">
+        <v>920</v>
+      </c>
+      <c r="C213" t="s">
+        <v>921</v>
+      </c>
+      <c r="D213" t="s">
+        <v>922</v>
+      </c>
+      <c r="E213" t="s">
+        <v>923</v>
+      </c>
+      <c r="F213" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>924</v>
+      </c>
+      <c r="B214" t="s">
+        <v>925</v>
+      </c>
+      <c r="C214" t="s">
+        <v>926</v>
+      </c>
+      <c r="D214" t="s">
+        <v>927</v>
+      </c>
+      <c r="E214" t="s">
+        <v>928</v>
+      </c>
+      <c r="F214" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>929</v>
+      </c>
+      <c r="B215" t="s">
+        <v>930</v>
+      </c>
+      <c r="C215" t="s">
+        <v>931</v>
+      </c>
+      <c r="D215" t="s">
+        <v>932</v>
+      </c>
+      <c r="E215" t="s">
+        <v>933</v>
+      </c>
+      <c r="F215" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>934</v>
+      </c>
+      <c r="B216" t="s">
+        <v>935</v>
+      </c>
+      <c r="C216" t="s">
+        <v>936</v>
+      </c>
+      <c r="D216" t="s">
+        <v>937</v>
+      </c>
+      <c r="E216" t="s">
+        <v>938</v>
+      </c>
+      <c r="F216" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>939</v>
+      </c>
+      <c r="B217" t="s">
+        <v>940</v>
+      </c>
+      <c r="C217" t="s">
+        <v>941</v>
+      </c>
+      <c r="D217" t="s">
+        <v>942</v>
+      </c>
+      <c r="E217" t="s">
+        <v>943</v>
+      </c>
+      <c r="F217" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>944</v>
+      </c>
+      <c r="B218" t="s">
+        <v>945</v>
+      </c>
+      <c r="C218" t="s">
+        <v>946</v>
+      </c>
+      <c r="D218" t="s">
+        <v>947</v>
+      </c>
+      <c r="E218" t="s">
+        <v>948</v>
+      </c>
+      <c r="F218" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>949</v>
+      </c>
+      <c r="B219" t="s">
+        <v>468</v>
+      </c>
+      <c r="C219" t="s">
+        <v>99</v>
+      </c>
+      <c r="D219" t="s">
+        <v>950</v>
+      </c>
+      <c r="E219" t="s">
+        <v>20</v>
+      </c>
+      <c r="F219" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>951</v>
+      </c>
+      <c r="B220" t="s">
+        <v>952</v>
+      </c>
+      <c r="C220" t="s">
+        <v>953</v>
+      </c>
+      <c r="D220" t="s">
+        <v>954</v>
+      </c>
+      <c r="E220" t="s">
+        <v>955</v>
+      </c>
+      <c r="F220" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>956</v>
+      </c>
+      <c r="B221" t="s">
+        <v>957</v>
+      </c>
+      <c r="C221" t="s">
+        <v>958</v>
+      </c>
+      <c r="D221" t="s">
+        <v>959</v>
+      </c>
+      <c r="E221" t="s">
+        <v>960</v>
+      </c>
+      <c r="F221" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>961</v>
+      </c>
+      <c r="B222">
+        <v>1</v>
+      </c>
+      <c r="C222">
+        <v>2</v>
+      </c>
+      <c r="D222">
+        <v>3</v>
+      </c>
+      <c r="E222">
+        <v>4</v>
+      </c>
+      <c r="F222">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>962</v>
+      </c>
+      <c r="B223">
+        <v>4</v>
+      </c>
+      <c r="C223">
+        <v>5</v>
+      </c>
+      <c r="D223">
+        <v>10</v>
+      </c>
+      <c r="E223">
+        <v>20</v>
+      </c>
+      <c r="F223">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>963</v>
+      </c>
+      <c r="B224" t="s">
+        <v>964</v>
+      </c>
+      <c r="C224" t="s">
+        <v>965</v>
+      </c>
+      <c r="D224" t="s">
+        <v>966</v>
+      </c>
+      <c r="E224" t="s">
+        <v>967</v>
+      </c>
+      <c r="F224" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>968</v>
+      </c>
+      <c r="B225" t="s">
+        <v>970</v>
+      </c>
+      <c r="C225" t="s">
+        <v>971</v>
+      </c>
+      <c r="D225" t="s">
+        <v>969</v>
+      </c>
+      <c r="E225" t="s">
+        <v>454</v>
+      </c>
+      <c r="F225" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>972</v>
+      </c>
+      <c r="B226" t="s">
+        <v>973</v>
+      </c>
+      <c r="C226" t="s">
+        <v>974</v>
+      </c>
+      <c r="D226" t="s">
+        <v>975</v>
+      </c>
+      <c r="E226" t="s">
+        <v>976</v>
+      </c>
+      <c r="F226" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>977</v>
+      </c>
+      <c r="B227" t="s">
+        <v>978</v>
+      </c>
+      <c r="C227" t="s">
+        <v>979</v>
+      </c>
+      <c r="D227" t="s">
+        <v>980</v>
+      </c>
+      <c r="E227" t="s">
+        <v>981</v>
+      </c>
+      <c r="F227" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>982</v>
+      </c>
+      <c r="B228" t="s">
+        <v>561</v>
+      </c>
+      <c r="C228" t="s">
+        <v>983</v>
+      </c>
+      <c r="D228" t="s">
+        <v>560</v>
+      </c>
+      <c r="E228" t="s">
+        <v>984</v>
+      </c>
+      <c r="F228" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>985</v>
+      </c>
+      <c r="B229" t="s">
+        <v>986</v>
+      </c>
+      <c r="C229" t="s">
+        <v>987</v>
+      </c>
+      <c r="D229" t="s">
+        <v>988</v>
+      </c>
+      <c r="E229" t="s">
+        <v>989</v>
+      </c>
+      <c r="F229" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>990</v>
+      </c>
+      <c r="B230" t="s">
+        <v>991</v>
+      </c>
+      <c r="C230" t="s">
+        <v>992</v>
+      </c>
+      <c r="D230" t="s">
+        <v>993</v>
+      </c>
+      <c r="E230" t="s">
+        <v>994</v>
+      </c>
+      <c r="F230" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>995</v>
+      </c>
+      <c r="B231" t="s">
+        <v>996</v>
+      </c>
+      <c r="C231" t="s">
+        <v>997</v>
+      </c>
+      <c r="D231" t="s">
+        <v>998</v>
+      </c>
+      <c r="E231" t="s">
+        <v>999</v>
+      </c>
+      <c r="F231" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B232" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C232" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D232" t="s">
+        <v>1003</v>
+      </c>
+      <c r="E232" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F232" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B233" t="s">
+        <v>529</v>
+      </c>
+      <c r="C233" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D233" t="s">
+        <v>530</v>
+      </c>
+      <c r="E233" t="s">
+        <v>527</v>
+      </c>
+      <c r="F233" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B234" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C234" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D234" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E234" t="s">
+        <v>1011</v>
+      </c>
+      <c r="F234" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B235" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C235" t="s">
+        <v>1015</v>
+      </c>
+      <c r="D235" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E235" t="s">
+        <v>1017</v>
+      </c>
+      <c r="F235" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B236">
+        <v>1</v>
+      </c>
+      <c r="C236">
+        <v>2</v>
+      </c>
+      <c r="D236">
+        <v>3</v>
+      </c>
+      <c r="E236">
+        <v>4</v>
+      </c>
+      <c r="F236">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B237">
+        <v>0</v>
+      </c>
+      <c r="C237">
+        <v>1</v>
+      </c>
+      <c r="D237">
+        <v>2</v>
+      </c>
+      <c r="E237">
+        <v>3</v>
+      </c>
+      <c r="F237">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B238" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C238" t="s">
+        <v>1024</v>
+      </c>
+      <c r="D238" t="s">
+        <v>1022</v>
+      </c>
+      <c r="E238" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F238" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B239" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C239" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D239" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E239" t="s">
+        <v>1029</v>
+      </c>
+      <c r="F239" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B240" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C240" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D240" t="s">
+        <v>141</v>
+      </c>
+      <c r="E240" t="s">
+        <v>1034</v>
+      </c>
+      <c r="F240" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B241">
+        <v>3</v>
+      </c>
+      <c r="C241">
+        <v>5</v>
+      </c>
+      <c r="D241">
+        <v>10</v>
+      </c>
+      <c r="E241">
+        <v>20</v>
+      </c>
+      <c r="F241">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B242" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C242" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D242" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E242" t="s">
+        <v>1040</v>
+      </c>
+      <c r="F242" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B243" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C243" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D243" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E243" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F243" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B244">
+        <v>1</v>
+      </c>
+      <c r="C244">
+        <v>2</v>
+      </c>
+      <c r="D244">
+        <v>3</v>
+      </c>
+      <c r="E244">
+        <v>4</v>
+      </c>
+      <c r="F244">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>486</v>
+      </c>
+      <c r="B245" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C245" t="s">
+        <v>543</v>
+      </c>
+      <c r="D245" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E245" t="s">
+        <v>1050</v>
+      </c>
+      <c r="F245" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>580</v>
+      </c>
+      <c r="B246" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C246" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D246" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E246" t="s">
+        <v>1054</v>
+      </c>
+      <c r="F246" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B247">
+        <v>20</v>
+      </c>
+      <c r="C247">
+        <v>80</v>
+      </c>
+      <c r="D247">
+        <v>64</v>
+      </c>
+      <c r="E247">
+        <v>100</v>
+      </c>
+      <c r="F247">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>595</v>
+      </c>
+      <c r="B248" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C248" t="s">
+        <v>1057</v>
+      </c>
+      <c r="D248" t="s">
+        <v>1058</v>
+      </c>
+      <c r="E248" t="s">
+        <v>1059</v>
+      </c>
+      <c r="F248" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B249" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C249" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D249" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E249" t="s">
+        <v>1064</v>
+      </c>
+      <c r="F249" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B250" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C250" t="s">
+        <v>1067</v>
+      </c>
+      <c r="D250" t="s">
+        <v>1068</v>
+      </c>
+      <c r="E250" t="s">
+        <v>1069</v>
+      </c>
+      <c r="F250" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B251" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C251" t="s">
+        <v>1072</v>
+      </c>
+      <c r="D251" t="s">
+        <v>559</v>
+      </c>
+      <c r="E251" t="s">
+        <v>983</v>
+      </c>
+      <c r="F251" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B252" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C252" t="s">
+        <v>1075</v>
+      </c>
+      <c r="D252" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E252" t="s">
+        <v>1077</v>
+      </c>
+      <c r="F252" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B253" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C253" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D253" t="s">
+        <v>1081</v>
+      </c>
+      <c r="E253" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F253" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B254" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C254" t="s">
+        <v>1085</v>
+      </c>
+      <c r="D254" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E254" t="s">
+        <v>343</v>
+      </c>
+      <c r="F254" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B255" t="s">
+        <v>65</v>
+      </c>
+      <c r="C255" t="s">
+        <v>66</v>
+      </c>
+      <c r="D255" t="s">
+        <v>63</v>
+      </c>
+      <c r="E255" t="s">
+        <v>64</v>
+      </c>
+      <c r="F255" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B256" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C256" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D256" t="s">
+        <v>1091</v>
+      </c>
+      <c r="E256" t="s">
+        <v>1092</v>
+      </c>
+      <c r="F256" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B257" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C257" t="s">
+        <v>341</v>
+      </c>
+      <c r="D257" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E257" t="s">
+        <v>339</v>
+      </c>
+      <c r="F257" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B258" t="s">
+        <v>1</v>
+      </c>
+      <c r="C258" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D258" t="s">
+        <v>782</v>
+      </c>
+      <c r="E258" t="s">
+        <v>849</v>
+      </c>
+      <c r="F258" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B259" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C259" t="s">
+        <v>1100</v>
+      </c>
+      <c r="D259" t="s">
+        <v>1101</v>
+      </c>
+      <c r="E259" t="s">
+        <v>1102</v>
+      </c>
+      <c r="F259" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B260" t="s">
+        <v>333</v>
+      </c>
+      <c r="C260" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D260" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E260" t="s">
+        <v>1106</v>
+      </c>
+      <c r="F260" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A261" s="2" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B261" s="2" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C261" s="2" t="s">
+        <v>1109</v>
+      </c>
+      <c r="D261" s="2" t="s">
+        <v>1110</v>
+      </c>
+      <c r="E261" s="2" t="s">
+        <v>1111</v>
+      </c>
+      <c r="F261" s="2" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A262" s="2" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B262" s="2" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C262" s="2" t="s">
+        <v>1114</v>
+      </c>
+      <c r="D262" s="2" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E262" s="2" t="s">
+        <v>1116</v>
+      </c>
+      <c r="F262" s="2" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A263" s="2" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B263" s="2" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C263" s="2" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D263" s="2" t="s">
+        <v>1120</v>
+      </c>
+      <c r="E263" s="2" t="s">
+        <v>1121</v>
+      </c>
+      <c r="F263" s="2" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A264" s="2" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B264" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="C264" s="2" t="s">
+        <v>1123</v>
+      </c>
+      <c r="D264" s="2" t="s">
+        <v>1124</v>
+      </c>
+      <c r="E264" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="F264" s="2" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A265" s="2" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B265" s="2" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C265" s="2" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D265" s="2" t="s">
+        <v>867</v>
+      </c>
+      <c r="E265" s="2" t="s">
+        <v>1128</v>
+      </c>
+      <c r="F265" s="2" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A266" s="2" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B266" s="2" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C266" s="2" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D266" s="2" t="s">
+        <v>1132</v>
+      </c>
+      <c r="E266" s="2" t="s">
+        <v>1133</v>
+      </c>
+      <c r="F266" s="2" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A267" s="2" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B267" s="2" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C267" s="2" t="s">
+        <v>1136</v>
+      </c>
+      <c r="D267" s="2" t="s">
+        <v>1137</v>
+      </c>
+      <c r="E267" s="2" t="s">
+        <v>1138</v>
+      </c>
+      <c r="F267" s="2" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A268" s="2" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B268" s="2" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C268" s="2" t="s">
+        <v>1141</v>
+      </c>
+      <c r="D268" s="2" t="s">
+        <v>1142</v>
+      </c>
+      <c r="E268" s="2" t="s">
+        <v>1143</v>
+      </c>
+      <c r="F268" s="2" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A269" s="2" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B269" s="2">
+        <v>12</v>
+      </c>
+      <c r="C269" s="2">
+        <v>10</v>
+      </c>
+      <c r="D269" s="2">
+        <v>13</v>
+      </c>
+      <c r="E269" s="2">
+        <v>11</v>
+      </c>
+      <c r="F269" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A270" s="2" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B270" s="2" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C270" s="2" t="s">
+        <v>1147</v>
+      </c>
+      <c r="D270" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="E270" s="2" t="s">
+        <v>1148</v>
+      </c>
+      <c r="F270" s="2" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A271" s="2" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B271" s="2" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C271" s="2" t="s">
+        <v>1151</v>
+      </c>
+      <c r="D271" s="2" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E271" s="2" t="s">
+        <v>1153</v>
+      </c>
+      <c r="F271" s="2" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A272" s="2" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B272" s="2" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C272" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D272" s="2" t="s">
+        <v>1156</v>
+      </c>
+      <c r="E272" s="2" t="s">
+        <v>1157</v>
+      </c>
+      <c r="F272" s="2" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A273" s="2" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B273" s="2" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C273" s="2" t="s">
+        <v>1160</v>
+      </c>
+      <c r="D273" s="2" t="s">
+        <v>1161</v>
+      </c>
+      <c r="E273" s="2" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F273" s="2" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B274" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C274" t="s">
+        <v>1165</v>
+      </c>
+      <c r="D274" t="s">
+        <v>818</v>
+      </c>
+      <c r="E274" t="s">
+        <v>1166</v>
+      </c>
+      <c r="F274" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B275" t="s">
+        <v>832</v>
+      </c>
+      <c r="C275" t="s">
+        <v>373</v>
+      </c>
+      <c r="D275" t="s">
+        <v>1168</v>
+      </c>
+      <c r="E275" t="s">
+        <v>1169</v>
+      </c>
+      <c r="F275" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B276" t="s">
+        <v>65</v>
+      </c>
+      <c r="C276" t="s">
+        <v>1171</v>
+      </c>
+      <c r="D276" t="s">
+        <v>63</v>
+      </c>
+      <c r="E276" t="s">
+        <v>126</v>
+      </c>
+      <c r="F276" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B277" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C277" t="s">
+        <v>1174</v>
+      </c>
+      <c r="D277" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E277" t="s">
+        <v>1176</v>
+      </c>
+      <c r="F277" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B278" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C278" t="s">
+        <v>495</v>
+      </c>
+      <c r="D278" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E278" t="s">
+        <v>494</v>
+      </c>
+      <c r="F278" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B279" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C279" t="s">
+        <v>1182</v>
+      </c>
+      <c r="D279" t="s">
+        <v>1183</v>
+      </c>
+      <c r="E279" t="s">
+        <v>1184</v>
+      </c>
+      <c r="F279" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B280" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C280" t="s">
+        <v>1187</v>
+      </c>
+      <c r="D280" t="s">
+        <v>1188</v>
+      </c>
+      <c r="E280" t="s">
+        <v>517</v>
+      </c>
+      <c r="F280" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B281" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C281" t="s">
+        <v>1191</v>
+      </c>
+      <c r="D281" t="s">
+        <v>879</v>
+      </c>
+      <c r="E281" t="s">
+        <v>1192</v>
+      </c>
+      <c r="F281" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B282">
+        <v>1</v>
+      </c>
+      <c r="C282">
+        <v>4</v>
+      </c>
+      <c r="D282">
+        <v>6</v>
+      </c>
+      <c r="E282">
+        <v>10</v>
+      </c>
+      <c r="F282">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B283" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C283" t="s">
+        <v>255</v>
+      </c>
+      <c r="D283" t="s">
+        <v>1196</v>
+      </c>
+      <c r="E283" t="s">
+        <v>1197</v>
+      </c>
+      <c r="F283" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B284" t="s">
+        <v>1</v>
+      </c>
+      <c r="C284" t="s">
+        <v>346</v>
+      </c>
+      <c r="D284" t="s">
+        <v>1199</v>
+      </c>
+      <c r="E284" t="s">
+        <v>344</v>
+      </c>
+      <c r="F284" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B285" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C285" t="s">
+        <v>945</v>
+      </c>
+      <c r="D285" t="s">
+        <v>1202</v>
+      </c>
+      <c r="E285" t="s">
+        <v>947</v>
+      </c>
+      <c r="F285" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B286" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C286" t="s">
+        <v>1205</v>
+      </c>
+      <c r="D286" t="s">
+        <v>1206</v>
+      </c>
+      <c r="E286" t="s">
+        <v>1207</v>
+      </c>
+      <c r="F286" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B287" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C287" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D287" t="s">
+        <v>1212</v>
+      </c>
+      <c r="E287" t="s">
+        <v>1213</v>
+      </c>
+      <c r="F287" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B288" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C288" t="s">
+        <v>1216</v>
+      </c>
+      <c r="D288" t="s">
+        <v>1217</v>
+      </c>
+      <c r="E288" t="s">
+        <v>1218</v>
+      </c>
+      <c r="F288" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B289" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C289" t="s">
+        <v>1220</v>
+      </c>
+      <c r="D289" t="s">
+        <v>1221</v>
+      </c>
+      <c r="E289" t="s">
+        <v>1222</v>
+      </c>
+      <c r="F289" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B290" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C290" t="s">
+        <v>1225</v>
+      </c>
+      <c r="D290" t="s">
+        <v>1226</v>
+      </c>
+      <c r="E290" t="s">
+        <v>1227</v>
+      </c>
+      <c r="F290" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B291" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C291" t="s">
+        <v>1230</v>
+      </c>
+      <c r="D291" t="s">
+        <v>1231</v>
+      </c>
+      <c r="E291" t="s">
+        <v>249</v>
+      </c>
+      <c r="F291" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B292" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C292" t="s">
+        <v>1234</v>
+      </c>
+      <c r="D292" t="s">
+        <v>1235</v>
+      </c>
+      <c r="E292" t="s">
+        <v>1236</v>
+      </c>
+      <c r="F292" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B293">
+        <v>1949</v>
+      </c>
+      <c r="C293">
+        <v>1950</v>
+      </c>
+      <c r="D293">
+        <v>1951</v>
+      </c>
+      <c r="E293">
+        <v>1952</v>
+      </c>
+      <c r="F293">
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B294" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C294" t="s">
+        <v>1240</v>
+      </c>
+      <c r="D294" t="s">
+        <v>1241</v>
+      </c>
+      <c r="E294" t="s">
+        <v>1242</v>
+      </c>
+      <c r="F294" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B295" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C295" t="s">
+        <v>1245</v>
+      </c>
+      <c r="D295" t="s">
+        <v>1246</v>
+      </c>
+      <c r="E295" t="s">
+        <v>1247</v>
+      </c>
+      <c r="F295" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B296" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C296" t="s">
+        <v>1250</v>
+      </c>
+      <c r="D296" t="s">
+        <v>1251</v>
+      </c>
+      <c r="E296" t="s">
+        <v>1252</v>
+      </c>
+      <c r="F296" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B297" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C297" t="s">
+        <v>1255</v>
+      </c>
+      <c r="D297" t="s">
+        <v>1256</v>
+      </c>
+      <c r="E297" t="s">
+        <v>1257</v>
+      </c>
+      <c r="F297" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B298" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C298" t="s">
+        <v>1260</v>
+      </c>
+      <c r="D298" t="s">
+        <v>1261</v>
+      </c>
+      <c r="E298" t="s">
+        <v>514</v>
+      </c>
+      <c r="F298" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B299" t="s">
+        <v>905</v>
+      </c>
+      <c r="C299" t="s">
+        <v>743</v>
+      </c>
+      <c r="D299" t="s">
+        <v>941</v>
+      </c>
+      <c r="E299" t="s">
+        <v>942</v>
+      </c>
+      <c r="F299" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B300">
+        <v>1</v>
+      </c>
+      <c r="C300">
+        <v>2</v>
+      </c>
+      <c r="D300">
+        <v>3</v>
+      </c>
+      <c r="E300">
+        <v>4</v>
+      </c>
+      <c r="F300">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Questions.xlsx
+++ b/Documentation/Questions.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\LesDouzeCoupsMidi\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projet\LesDouzeCoupsMidi\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -4139,8 +4139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F300"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
-      <selection activeCell="F303" sqref="F303"/>
+    <sheetView tabSelected="1" topLeftCell="A256" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A297" sqref="A297"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
